--- a/WIP/Documents/Report 5/Test Result/WS_System Test Case_v1.0_EN.xlsx
+++ b/WIP/Documents/Report 5/Test Result/WS_System Test Case_v1.0_EN.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\WingS\Report 3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="840" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="840" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -53,7 +48,7 @@
     <definedName name="Statistic" comment="fsfsdfs">#REF!</definedName>
     <definedName name="TestList">List!$A$2:$A$6</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterate="1" iterateCount="10000" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="144525" iterate="1" iterateCount="10000" iterateDelta="1.0000000000000001E-5"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -64,7 +59,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +133,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +177,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +221,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -243,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +265,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -287,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +309,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -331,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +353,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -402,7 +397,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -419,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +436,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="807">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -4145,6 +4140,9 @@
 2. Click Report button in Right Slide bar
 3. Click on Organization 
 4. Chose 1 record and click "Cancel"</t>
+  </si>
+  <si>
+    <t>DuyTN,TuanHA</t>
   </si>
 </sst>
 </file>
@@ -6351,8 +6349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7148,7 +7146,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="187" t="s">
-        <v>148</v>
+        <v>806</v>
       </c>
       <c r="C4" s="188"/>
       <c r="D4" s="188"/>
@@ -7666,7 +7664,7 @@
     <row r="6" spans="1:257" ht="13.5" thickBot="1">
       <c r="A6" s="86">
         <f>COUNTIF(F12:G99,"Pass")</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B6" s="87">
         <f>COUNTIF(F12:G99,"Fail")</f>
@@ -7674,7 +7672,7 @@
       </c>
       <c r="C6" s="87">
         <f>E6-D6-B6-A6</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D6" s="88">
         <f>COUNTIF(F12:G99,"N/A")</f>
@@ -9219,7 +9217,7 @@
       <c r="IO11" s="78"/>
       <c r="IP11" s="78"/>
     </row>
-    <row r="12" spans="1:257" ht="17.25" customHeight="1">
+    <row r="12" spans="1:257" ht="38.25">
       <c r="A12" s="54" t="str">
         <f t="shared" ref="A12:A13" si="0">IF(OR(B12&lt;&gt;"",D12&lt;E11&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Donate-2]</v>
@@ -9246,7 +9244,7 @@
       <c r="I12" s="101"/>
       <c r="J12" s="90"/>
     </row>
-    <row r="13" spans="1:257" ht="16.5" customHeight="1">
+    <row r="13" spans="1:257" ht="51">
       <c r="A13" s="54" t="str">
         <f t="shared" si="0"/>
         <v>[Donate-3]</v>
@@ -9273,7 +9271,7 @@
       <c r="I13" s="101"/>
       <c r="J13" s="90"/>
     </row>
-    <row r="14" spans="1:257" ht="15.75" customHeight="1">
+    <row r="14" spans="1:257" ht="51">
       <c r="A14" s="54" t="str">
         <f>IF(OR(B14&lt;&gt;"",D14&lt;E12&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Donate-4]</v>
@@ -9300,7 +9298,7 @@
       <c r="I14" s="101"/>
       <c r="J14" s="90"/>
     </row>
-    <row r="15" spans="1:257" ht="18" customHeight="1">
+    <row r="15" spans="1:257" ht="51">
       <c r="A15" s="54" t="str">
         <f t="shared" ref="A15:A17" si="1">IF(OR(B15&lt;&gt;"",D15&lt;E14&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Donate-5]</v>
@@ -9327,7 +9325,7 @@
       <c r="I15" s="101"/>
       <c r="J15" s="90"/>
     </row>
-    <row r="16" spans="1:257" ht="15.75" customHeight="1">
+    <row r="16" spans="1:257" ht="51">
       <c r="A16" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[Donate-6]</v>
@@ -9354,7 +9352,7 @@
       <c r="I16" s="101"/>
       <c r="J16" s="90"/>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
+    <row r="17" spans="1:10" ht="51">
       <c r="A17" s="54" t="str">
         <f t="shared" si="1"/>
         <v>[Donate-7]</v>
@@ -9381,7 +9379,7 @@
       <c r="I17" s="101"/>
       <c r="J17" s="90"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+    <row r="18" spans="1:10" ht="51">
       <c r="A18" s="54" t="str">
         <f t="shared" ref="A18:A19" si="2">IF(OR(B18&lt;&gt;"",D18&lt;E15&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Donate-8]</v>
@@ -9408,7 +9406,7 @@
       <c r="I18" s="101"/>
       <c r="J18" s="90"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1">
+    <row r="19" spans="1:10" ht="51">
       <c r="A19" s="54" t="str">
         <f t="shared" si="2"/>
         <v>[Donate-9]</v>
@@ -9435,7 +9433,7 @@
       <c r="I19" s="101"/>
       <c r="J19" s="90"/>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1">
+    <row r="20" spans="1:10" ht="63.75">
       <c r="A20" s="54" t="str">
         <f t="shared" ref="A20" si="3">IF(OR(B20&lt;&gt;"",D20&lt;E19&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Donate-10]</v>
@@ -9462,7 +9460,7 @@
       <c r="I20" s="101"/>
       <c r="J20" s="90"/>
     </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1">
+    <row r="21" spans="1:10" ht="63.75">
       <c r="A21" s="54" t="str">
         <f t="shared" ref="A21" si="4">IF(OR(B21&lt;&gt;"",D21&lt;E20&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Donate-11]</v>
@@ -9477,13 +9475,19 @@
         <v>595</v>
       </c>
       <c r="E21" s="99"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="98"/>
+      <c r="F21" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="98">
+        <v>42713</v>
+      </c>
       <c r="I21" s="101"/>
       <c r="J21" s="90"/>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
+    <row r="22" spans="1:10" ht="63.75">
       <c r="A22" s="54" t="str">
         <f t="shared" ref="A22" si="5">IF(OR(B22&lt;&gt;"",D22&lt;E21&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Donate-12]</v>
@@ -9498,13 +9502,19 @@
         <v>594</v>
       </c>
       <c r="E22" s="99"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="98"/>
+      <c r="F22" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="98">
+        <v>42713</v>
+      </c>
       <c r="I22" s="101"/>
       <c r="J22" s="90"/>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1">
+    <row r="23" spans="1:10" ht="63.75">
       <c r="A23" s="54" t="str">
         <f>IF(OR(B23&lt;&gt;"",D23&lt;E21&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Donate-13]</v>
@@ -9519,13 +9529,19 @@
         <v>595</v>
       </c>
       <c r="E23" s="99"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="98"/>
+      <c r="F23" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="98">
+        <v>42713</v>
+      </c>
       <c r="I23" s="101"/>
       <c r="J23" s="90"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1">
+    <row r="24" spans="1:10" ht="63.75">
       <c r="A24" s="54" t="str">
         <f t="shared" ref="A24" si="6">IF(OR(B24&lt;&gt;"",D24&lt;E23&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Donate-14]</v>
@@ -9540,13 +9556,19 @@
         <v>594</v>
       </c>
       <c r="E24" s="99"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="98"/>
+      <c r="F24" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="98">
+        <v>42713</v>
+      </c>
       <c r="I24" s="101"/>
       <c r="J24" s="90"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1">
+    <row r="25" spans="1:10" ht="63.75">
       <c r="A25" s="54" t="str">
         <f>IF(OR(B25&lt;&gt;"",D25&lt;E23&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Donate-15]</v>
@@ -9561,13 +9583,19 @@
         <v>595</v>
       </c>
       <c r="E25" s="99"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="98"/>
+      <c r="F25" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="98">
+        <v>42713</v>
+      </c>
       <c r="I25" s="101"/>
       <c r="J25" s="90"/>
     </row>
-    <row r="26" spans="1:10" ht="14.25" customHeight="1">
+    <row r="26" spans="1:10" ht="63.75">
       <c r="A26" s="54" t="str">
         <f t="shared" ref="A26" si="7">IF(OR(B26&lt;&gt;"",D26&lt;E25&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Donate-16]</v>
@@ -9582,9 +9610,15 @@
         <v>594</v>
       </c>
       <c r="E26" s="99"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="98"/>
+      <c r="F26" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="98">
+        <v>42713</v>
+      </c>
       <c r="I26" s="101"/>
       <c r="J26" s="90"/>
     </row>
@@ -20185,16 +20219,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="B11:I11"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="B11:I11"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G21 F23:G26 F28:G28 F30:G33 F35:G42 F45:G52">
@@ -20561,7 +20595,7 @@
       </c>
       <c r="D16" s="125">
         <f>Donate!A6</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E16" s="125">
         <f>Donate!B6</f>
@@ -20569,7 +20603,7 @@
       </c>
       <c r="F16" s="125">
         <f>Donate!C6</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G16" s="125">
         <f>Donate!D6</f>
@@ -20676,7 +20710,7 @@
       </c>
       <c r="D22" s="114">
         <f>SUM(D9:D20)</f>
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="E22" s="114">
         <f>SUM(E9:E20)</f>
@@ -20684,7 +20718,7 @@
       </c>
       <c r="F22" s="114">
         <f>SUM(F11:F21)</f>
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G22" s="114">
         <f>SUM(G11:G21)</f>
@@ -20714,7 +20748,7 @@
       <c r="D24" s="64"/>
       <c r="E24" s="71">
         <f>(D22+E22)*100/(H22-G22)</f>
-        <v>57.169811320754718</v>
+        <v>59.433962264150942</v>
       </c>
       <c r="F24" s="64" t="s">
         <v>43</v>
@@ -20731,7 +20765,7 @@
       <c r="D25" s="64"/>
       <c r="E25" s="71">
         <f>D22*100/(H22-G22)</f>
-        <v>56.79245283018868</v>
+        <v>59.056603773584904</v>
       </c>
       <c r="F25" s="64" t="s">
         <v>43</v>
@@ -25460,7 +25494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>

--- a/WIP/Documents/Report 5/Test Result/WS_System Test Case_v1.0_EN.xlsx
+++ b/WIP/Documents/Report 5/Test Result/WS_System Test Case_v1.0_EN.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WingS\201609JS01\WIP\Documents\Report 5\Test Result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="840" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="840" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -48,7 +53,7 @@
     <definedName name="Statistic" comment="fsfsdfs">#REF!</definedName>
     <definedName name="TestList">List!$A$2:$A$6</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterate="1" iterateCount="10000" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="152511" iterate="1" iterateCount="10000" iterateDelta="1.0000000000000001E-5"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -59,7 +64,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E11" authorId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +138,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0">
+    <comment ref="F10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +182,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0">
+    <comment ref="F10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +226,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0">
+    <comment ref="F10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +270,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0">
+    <comment ref="F10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +314,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0">
+    <comment ref="F10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -353,7 +358,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0">
+    <comment ref="F10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -397,7 +402,7 @@
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0">
+    <comment ref="F10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -414,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -436,7 +441,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="830">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -839,17 +844,6 @@
     <t>Admin Module</t>
   </si>
   <si>
-    <t>1.The admin page is displayed 
-2. Display error message "Username or Password wrong"</t>
-  </si>
-  <si>
-    <t>When user input wrong username and correct password</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Input username and password, then click "Login" button</t>
-  </si>
-  <si>
     <t>This test cases were created to test Admin module.</t>
   </si>
   <si>
@@ -858,22 +852,11 @@
 </t>
   </si>
   <si>
-    <t>Test Admin when admin click Slidebar toggle button</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click Sidebar toggle button in Right Slide bar
-3. Click Sidebar toggle button in Right Slide bar</t>
-  </si>
-  <si>
     <t>1. Admin Page is displayed
 2. Sidebar is hidden
 3. Siderbar is showed</t>
   </si>
   <si>
-    <t>User Management module</t>
-  </si>
-  <si>
     <t>Defects</t>
   </si>
   <si>
@@ -896,11 +879,6 @@
   </si>
   <si>
     <t>Tài khoản không tồn tại</t>
-  </si>
-  <si>
-    <t>1. Userprofile Page is displayed
-2. Profile of user is displayed 
-3. User is actived/Deactived  and return Users list Page</t>
   </si>
   <si>
     <t>Email sai định dạng</t>
@@ -1036,13 +1014,6 @@
   <si>
     <t>1. First [maxlength] of input data is displayed in search text box
 2. Search Result page is displayed</t>
-  </si>
-  <si>
-    <t>1. User menu is displayed include:
-- Message menu item
-- Noticification menu item
-- Profile menu item
-- Logout menu item</t>
   </si>
   <si>
     <t>1. Click View event  button in Homepage</t>
@@ -3472,13 +3443,6 @@
     <t>1. Go to …/Admin.com</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Admin Page is displayed with the following list:
-- Header
-- Right Side bar
-- Content details left
-</t>
-  </si>
-  <si>
     <t>Check Logout button</t>
   </si>
   <si>
@@ -3497,40 +3461,10 @@
     <t>Check  User button in sidebar</t>
   </si>
   <si>
-    <t>1. Go to …/Admin.com
-2. Click User button in Right Slide bar
-3. Click Dashboard button in User menu</t>
-  </si>
-  <si>
-    <t>1. Admin Page is displayed
-2. Dropdowlist is displayed with:
-+ Dashboard
-+ User list
-3. Content about dashboard of user is displayed</t>
-  </si>
-  <si>
     <t>Check  User list button in User menu</t>
   </si>
   <si>
-    <t>1. Go to …/Admin.com
-2. Click User button in Right Slide bar
-3. Click User list button in User menu</t>
-  </si>
-  <si>
-    <t>1. Admin Page is displayed
-2. Dropdowlist is displayed with:
-+ Dashboard
-+ User list
-3. Content of User list is displayed</t>
-  </si>
-  <si>
     <t>Check View button in Users list table</t>
-  </si>
-  <si>
-    <t>1. Go to …/Admin.com
-2. Click User button in Right Slide bar
-3. Click User list button in User menu
-4. Select a user and click View button</t>
   </si>
   <si>
     <t>1. Admin Page is displayed
@@ -3563,14 +3497,6 @@
     <t>1. Userprofile Page is displayed
 2. Profile of user is displayed 
 3. User status is changed Deactive</t>
-  </si>
-  <si>
-    <t>Test Active/Deactive User in same time</t>
-  </si>
-  <si>
-    <t>1. Enter the Userprofle Page
-2. Click tab Profile
-3. Click Active/Deactive button 2 timé</t>
   </si>
   <si>
     <t>Check Event button in sidebar</t>
@@ -3824,15 +3750,6 @@
     <t>1. Enter the admin page
 2. Click on Thread List on Thread tab menu
 3. Thread status is changed Deactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EventManagement module</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ThreadManagement module</t>
-  </si>
-  <si>
-    <t>Common module</t>
   </si>
   <si>
     <t>Admin login with OrganizationManagement module</t>
@@ -3994,15 +3911,6 @@
 </t>
   </si>
   <si>
-    <t>Check User Report list  and click confirm</t>
-  </si>
-  <si>
-    <t>1. Enter the admin page
-2. Click Report button in Right Slide bar
-3. Click on User 
-4. Chose 1 record and click "Confirm"</t>
-  </si>
-  <si>
     <t>3. Display list user reported and 10 records display on it
 4. User has been banned and report status has been changed</t>
   </si>
@@ -4143,6 +4051,164 @@
   </si>
   <si>
     <t>DuyTN,TuanHA</t>
+  </si>
+  <si>
+    <t>Admin login with Common module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Admin Page is displayed with the following list:
+- Header
+- Left Side bar
+- Content details right
+</t>
+  </si>
+  <si>
+    <t>[Admin_login-3]</t>
+  </si>
+  <si>
+    <t>Admin login with User Management module</t>
+  </si>
+  <si>
+    <t>1. Go to …/Admin.com
+2. Click User button in Slide bar
+3. Click Dashboard button in User menu</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. Dropdowlist is displayed with:
++ Thống kê thành viên
++ Danh sách Thành viên
+3. Content about dashboard of user is displayed</t>
+  </si>
+  <si>
+    <t>1. Go to …/Admin.com
+2. Click User button in  Slide bar
+3. Click User list button in User menu</t>
+  </si>
+  <si>
+    <t>1. Admin Page is displayed
+2. Dropdowlist is displayed with:
++ Thống kê thành viên
++ Danh sách Thành viên
+3. Content of User list is displayed</t>
+  </si>
+  <si>
+    <t>1. Go to …/Admin.com
+2. Click User button in Right Slide bar
+3. Click User list button in User menu
+4. Select a user and double click to image</t>
+  </si>
+  <si>
+    <t>Admin login with EventManagement module</t>
+  </si>
+  <si>
+    <t>Admin login with ThreadManagement module</t>
+  </si>
+  <si>
+    <t>Check User Report list  and click "Xem chi tiết"</t>
+  </si>
+  <si>
+    <t>1. Enter the admin page
+2. Click Report button in Right Slide bar
+3. Click on User  and click "Xem chi tiết"
+4. "Khóa tài khoản này"</t>
+  </si>
+  <si>
+    <t>1. User menu is displayed include:
+- Message menu item
+- My organization menu
+- Profile menu item
+- Logout menu item</t>
+  </si>
+  <si>
+    <t>Check click on 'Facebook' on footer</t>
+  </si>
+  <si>
+    <t>Click on  'Facebook' on footer</t>
+  </si>
+  <si>
+    <t>1. Go to link Facebook of WS</t>
+  </si>
+  <si>
+    <t>Check click on 'Google' on footer</t>
+  </si>
+  <si>
+    <t>Click on 'Google' on footer</t>
+  </si>
+  <si>
+    <t>1. Go to link Google link of WS</t>
+  </si>
+  <si>
+    <t>Check click on 'Twitter' on footer</t>
+  </si>
+  <si>
+    <t>Click on  'Twitter' on footer</t>
+  </si>
+  <si>
+    <t>1. Go to link Twitter of WS</t>
+  </si>
+  <si>
+    <t>Check click on 'Trang chủ' on footer</t>
+  </si>
+  <si>
+    <t>Click on  'Trang chủ' on footer</t>
+  </si>
+  <si>
+    <t>1. Go to Homepage</t>
+  </si>
+  <si>
+    <t>Check click on 'Sự kiện' on footer</t>
+  </si>
+  <si>
+    <t>Click on  'Sự kiện' on footer</t>
+  </si>
+  <si>
+    <t>1.Go to Event page</t>
+  </si>
+  <si>
+    <t>Check click on 'Tổ chức' on footer</t>
+  </si>
+  <si>
+    <t>Click on  'Tổ chức' on footer</t>
+  </si>
+  <si>
+    <t>1.Go to Organization page</t>
+  </si>
+  <si>
+    <t>Check click on 'Thảo luận' on footer</t>
+  </si>
+  <si>
+    <t>Click on 'Thảo luận' on footer</t>
+  </si>
+  <si>
+    <t>1.Go to Discussion page</t>
+  </si>
+  <si>
+    <t>Check click on 'Về chúng tôi' on footer</t>
+  </si>
+  <si>
+    <t>Click on  'Về chúng tôi' on footer</t>
+  </si>
+  <si>
+    <t>1. Go to About Us page</t>
+  </si>
+  <si>
+    <t>Check click on 'Liên hệ' on footer</t>
+  </si>
+  <si>
+    <t>Click on 'Liên hệ' on footer</t>
+  </si>
+  <si>
+    <t>1.Go to Contact page</t>
+  </si>
+  <si>
+    <t>Check click on 'Đăng nhập' on footer</t>
+  </si>
+  <si>
+    <t>Click on 'Đăng nhập' on footer</t>
+  </si>
+  <si>
+    <t>1.Go to Login page</t>
   </si>
 </sst>
 </file>
@@ -4444,7 +4510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -5111,15 +5177,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5131,7 +5188,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5663,14 +5720,11 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6169,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="173" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D4" s="173"/>
       <c r="E4" s="173"/>
@@ -6177,7 +6231,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1">
@@ -6185,7 +6239,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="173" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D5" s="173"/>
       <c r="E5" s="173"/>
@@ -6193,7 +6247,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
@@ -6210,7 +6264,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="72" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
@@ -6267,7 +6321,7 @@
     </row>
     <row r="12" spans="1:7" s="22" customFormat="1" ht="21.75" customHeight="1">
       <c r="B12" s="73" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C12" s="74" t="s">
         <v>45</v>
@@ -6349,7 +6403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -6630,7 +6684,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="196" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C2" s="196"/>
       <c r="D2" s="196"/>
@@ -6888,7 +6942,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="196" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C3" s="196"/>
       <c r="D3" s="196"/>
@@ -7146,7 +7200,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="187" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
       <c r="C4" s="188"/>
       <c r="D4" s="188"/>
@@ -8710,10 +8764,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -8966,7 +9020,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -9223,13 +9277,13 @@
         <v>[Donate-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="106" t="s">
@@ -9250,13 +9304,13 @@
         <v>[Donate-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="E13" s="99"/>
       <c r="F13" s="106" t="s">
@@ -9277,13 +9331,13 @@
         <v>[Donate-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="E14" s="99"/>
       <c r="F14" s="106" t="s">
@@ -9304,13 +9358,13 @@
         <v>[Donate-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="E15" s="99"/>
       <c r="F15" s="106" t="s">
@@ -9331,13 +9385,13 @@
         <v>[Donate-6]</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E16" s="99"/>
       <c r="F16" s="106" t="s">
@@ -9358,13 +9412,13 @@
         <v>[Donate-7]</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E17" s="99"/>
       <c r="F17" s="106" t="s">
@@ -9385,13 +9439,13 @@
         <v>[Donate-8]</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E18" s="99"/>
       <c r="F18" s="106" t="s">
@@ -9412,13 +9466,13 @@
         <v>[Donate-9]</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="E19" s="99"/>
       <c r="F19" s="106" t="s">
@@ -9439,13 +9493,13 @@
         <v>[Donate-10]</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E20" s="99"/>
       <c r="F20" s="106" t="s">
@@ -9466,13 +9520,13 @@
         <v>[Donate-11]</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="E21" s="99"/>
       <c r="F21" s="106" t="s">
@@ -9493,13 +9547,13 @@
         <v>[Donate-12]</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="E22" s="99"/>
       <c r="F22" s="106" t="s">
@@ -9520,13 +9574,13 @@
         <v>[Donate-13]</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="E23" s="99"/>
       <c r="F23" s="106" t="s">
@@ -9547,13 +9601,13 @@
         <v>[Donate-14]</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D24" s="97" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="E24" s="99"/>
       <c r="F24" s="106" t="s">
@@ -9574,13 +9628,13 @@
         <v>[Donate-15]</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D25" s="97" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="E25" s="99"/>
       <c r="F25" s="106" t="s">
@@ -9601,13 +9655,13 @@
         <v>[Donate-16]</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="E26" s="99"/>
       <c r="F26" s="106" t="s">
@@ -9684,7 +9738,7 @@
   <dimension ref="A1:IW29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10222,7 +10276,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="196" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C3" s="196"/>
       <c r="D3" s="196"/>
@@ -10480,7 +10534,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="187" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C4" s="188"/>
       <c r="D4" s="188"/>
@@ -12044,10 +12098,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -12300,7 +12354,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -12557,13 +12611,13 @@
         <v>[Message-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="106" t="s">
@@ -12584,13 +12638,13 @@
         <v>[Message-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E13" s="99"/>
       <c r="F13" s="106" t="s">
@@ -12611,13 +12665,13 @@
         <v>[Message-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E14" s="99"/>
       <c r="F14" s="106" t="s">
@@ -12638,13 +12692,13 @@
         <v>[Message-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="E15" s="99"/>
       <c r="F15" s="106" t="s">
@@ -12665,13 +12719,13 @@
         <v>[Message-6]</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E16" s="99"/>
       <c r="F16" s="106" t="s">
@@ -12692,13 +12746,13 @@
         <v>[Message-7]</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="E17" s="99"/>
       <c r="F17" s="106" t="s">
@@ -12719,13 +12773,13 @@
         <v>[Message-8]</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E18" s="99"/>
       <c r="F18" s="106" t="s">
@@ -12746,13 +12800,13 @@
         <v>[Message-9]</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="E19" s="99"/>
       <c r="F19" s="106" t="s">
@@ -12773,13 +12827,13 @@
         <v>[Message-10]</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E20" s="99"/>
       <c r="F20" s="106" t="s">
@@ -12800,13 +12854,13 @@
         <v>[Message-11]</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E21" s="99"/>
       <c r="F21" s="106" t="s">
@@ -12827,13 +12881,13 @@
         <v>[Message-12]</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E22" s="99"/>
       <c r="F22" s="106" t="s">
@@ -12854,13 +12908,13 @@
         <v>[Message-13]</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="E23" s="99"/>
       <c r="F23" s="106" t="s">
@@ -12881,13 +12935,13 @@
         <v>[Message-14]</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="D24" s="97" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E24" s="99"/>
       <c r="F24" s="106" t="s">
@@ -12908,13 +12962,13 @@
         <v>[Message-15]</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="D25" s="97" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="E25" s="99"/>
       <c r="F25" s="106" t="s">
@@ -12935,13 +12989,13 @@
         <v>[Message-16]</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="E26" s="99"/>
       <c r="F26" s="106" t="s">
@@ -12962,13 +13016,13 @@
         <v>[Message-17]</v>
       </c>
       <c r="B27" s="97" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="D27" s="97" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="E27" s="99"/>
       <c r="F27" s="106" t="s">
@@ -12989,13 +13043,13 @@
         <v>[Message-18]</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D28" s="97" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="E28" s="99"/>
       <c r="F28" s="106" t="s">
@@ -13016,13 +13070,13 @@
         <v>[Message-19]</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="E29" s="99"/>
       <c r="F29" s="106" t="s">
@@ -13062,8 +13116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW83"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -13596,7 +13650,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="196" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C3" s="196"/>
       <c r="D3" s="196"/>
@@ -13847,7 +13901,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="187" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C4" s="188"/>
       <c r="D4" s="188"/>
@@ -14356,8 +14410,8 @@
     </row>
     <row r="6" spans="1:257" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="86">
-        <f>COUNTIF(F11:G55,"Pass")</f>
-        <v>1</v>
+        <f>COUNTIF(F12:G85,"Pass")</f>
+        <v>134</v>
       </c>
       <c r="B6" s="87">
         <f>COUNTIF(F11:G55,"Fail")</f>
@@ -14365,7 +14419,7 @@
       </c>
       <c r="C6" s="87">
         <f>E6-D6-B6-A6</f>
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="D6" s="88">
         <f>COUNTIF(F11:G55,"N/A")</f>
@@ -14373,7 +14427,7 @@
       </c>
       <c r="E6" s="199">
         <f>COUNTA(A11:A83)*2</f>
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F6" s="199"/>
       <c r="G6" s="199"/>
@@ -15381,10 +15435,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="155" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G10" s="155" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="H10" s="155" t="s">
         <v>35</v>
@@ -15632,16 +15686,16 @@
     </row>
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="145"/>
-      <c r="B11" s="202" t="s">
+      <c r="B11" s="200" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="202"/>
-      <c r="D11" s="202"/>
-      <c r="E11" s="202"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="202"/>
-      <c r="I11" s="202"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
       <c r="J11" s="78"/>
       <c r="K11" s="78"/>
       <c r="L11" s="78"/>
@@ -15888,20 +15942,24 @@
         <v>[Admin Module-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="E12" s="152"/>
       <c r="F12" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="97"/>
-      <c r="H12" s="100"/>
+      <c r="G12" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="201">
+        <v>42472</v>
+      </c>
       <c r="I12" s="156"/>
       <c r="J12" s="90"/>
     </row>
@@ -15911,18 +15969,24 @@
         <v>[Admin Module-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="E13" s="153"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="100"/>
+      <c r="F13" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="201">
+        <v>42472</v>
+      </c>
       <c r="I13" s="146"/>
       <c r="J13" s="90"/>
     </row>
@@ -15932,18 +15996,24 @@
         <v>[Admin Module-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="E14" s="153"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="100"/>
+      <c r="F14" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="201">
+        <v>42472</v>
+      </c>
       <c r="I14" s="146"/>
       <c r="J14" s="90"/>
     </row>
@@ -15953,18 +16023,24 @@
         <v>[Admin Module-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="E15" s="153"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="100"/>
+      <c r="F15" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="201">
+        <v>42472</v>
+      </c>
       <c r="I15" s="146"/>
       <c r="J15" s="90"/>
     </row>
@@ -15974,18 +16050,24 @@
         <v>[Admin Module-6]</v>
       </c>
       <c r="B16" s="170" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="C16" s="170" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="E16" s="153"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="100"/>
+      <c r="F16" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="201">
+        <v>42472</v>
+      </c>
       <c r="I16" s="146"/>
       <c r="J16" s="90"/>
     </row>
@@ -15995,18 +16077,24 @@
         <v>[Admin Module-7]</v>
       </c>
       <c r="B17" s="95" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="C17" s="95" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="E17" s="153"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="100"/>
+      <c r="F17" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="201">
+        <v>42472</v>
+      </c>
       <c r="I17" s="146"/>
       <c r="J17" s="90"/>
     </row>
@@ -16016,18 +16104,24 @@
         <v>[Admin Module-8]</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="E18" s="153"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="100"/>
+      <c r="F18" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="201">
+        <v>42472</v>
+      </c>
       <c r="I18" s="146"/>
       <c r="J18" s="90"/>
     </row>
@@ -16037,18 +16131,24 @@
         <v>[Admin Module-9]</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="E19" s="153"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="100"/>
+      <c r="F19" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="201">
+        <v>42472</v>
+      </c>
       <c r="I19" s="146"/>
       <c r="J19" s="90"/>
     </row>
@@ -16058,53 +16158,69 @@
         <v>[Admin Module-10]</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="E20" s="153"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="100"/>
+      <c r="F20" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="201">
+        <v>42472</v>
+      </c>
       <c r="I20" s="146"/>
       <c r="J20" s="90"/>
     </row>
     <row r="21" spans="1:248" ht="14.25" customHeight="1">
-      <c r="A21" s="138" t="str">
-        <f t="shared" ref="A21" si="1">IF(OR(B21&lt;&gt;"",D21&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Admin Module-11]</v>
-      </c>
-      <c r="B21" s="97" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="97" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="153"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="100"/>
+      <c r="A21" s="150"/>
+      <c r="B21" s="149" t="s">
+        <v>786</v>
+      </c>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="201">
+        <v>42472</v>
+      </c>
       <c r="I21" s="146"/>
       <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:248" s="91" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A22" s="201" t="s">
-        <v>738</v>
-      </c>
-      <c r="B22" s="201"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
+      <c r="A22" s="138" t="str">
+        <f t="shared" ref="A22:A24" si="1">IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Admin Module-12]</v>
+      </c>
+      <c r="B22" s="97" t="s">
+        <v>653</v>
+      </c>
+      <c r="C22" s="97" t="s">
+        <v>654</v>
+      </c>
+      <c r="D22" s="97" t="s">
+        <v>787</v>
+      </c>
+      <c r="E22" s="158" t="s">
+        <v>788</v>
+      </c>
+      <c r="F22" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="201">
+        <v>42472</v>
+      </c>
       <c r="I22" s="151"/>
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
@@ -16348,22 +16464,30 @@
     </row>
     <row r="23" spans="1:248" s="91" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="138" t="str">
-        <f t="shared" ref="A23:A25" si="2">IF(OR(B23&lt;&gt;"",D23&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="1"/>
         <v>[Admin Module-13]</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>662</v>
-      </c>
-      <c r="D23" s="97" t="s">
-        <v>663</v>
-      </c>
-      <c r="E23" s="158"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="100"/>
+        <v>656</v>
+      </c>
+      <c r="D23" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="158" t="s">
+        <v>788</v>
+      </c>
+      <c r="F23" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="201">
+        <v>42472</v>
+      </c>
       <c r="I23" s="147"/>
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
@@ -16607,22 +16731,30 @@
     </row>
     <row r="24" spans="1:248" s="91" customFormat="1" ht="14.25" customHeight="1">
       <c r="A24" s="138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>[Admin Module-14]</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D24" s="157" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="158"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="100"/>
+        <v>129</v>
+      </c>
+      <c r="E24" s="158" t="s">
+        <v>788</v>
+      </c>
+      <c r="F24" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="201">
+        <v>42472</v>
+      </c>
       <c r="I24" s="147"/>
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
@@ -16865,23 +16997,18 @@
       <c r="IN24" s="90"/>
     </row>
     <row r="25" spans="1:248" s="91" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A25" s="138" t="str">
-        <f t="shared" si="2"/>
-        <v>[Admin Module-15]</v>
-      </c>
-      <c r="B25" s="97" t="s">
-        <v>666</v>
-      </c>
-      <c r="C25" s="97" t="s">
-        <v>667</v>
-      </c>
-      <c r="D25" s="157" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="158"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="100"/>
+      <c r="A25" s="150"/>
+      <c r="B25" s="149" t="s">
+        <v>789</v>
+      </c>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="201">
+        <v>42472</v>
+      </c>
       <c r="I25" s="147"/>
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
@@ -17125,22 +17252,28 @@
     </row>
     <row r="26" spans="1:248" s="91" customFormat="1" ht="14.25" customHeight="1">
       <c r="A26" s="138" t="str">
-        <f t="shared" ref="A26:A43" si="3">IF(OR(B26&lt;&gt;"",D26&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A26:A30" si="2">IF(OR(B26&lt;&gt;"",D26&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin Module-16]</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>132</v>
+        <v>659</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>133</v>
+        <v>790</v>
       </c>
       <c r="D26" s="157" t="s">
-        <v>134</v>
+        <v>791</v>
       </c>
       <c r="E26" s="158"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="100"/>
+      <c r="F26" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="201">
+        <v>42472</v>
+      </c>
       <c r="I26" s="147"/>
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
@@ -17383,16 +17516,29 @@
       <c r="IN26" s="90"/>
     </row>
     <row r="27" spans="1:248" s="91" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A27" s="201" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="201"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
+      <c r="A27" s="138" t="str">
+        <f t="shared" si="2"/>
+        <v>[Admin Module-17]</v>
+      </c>
+      <c r="B27" s="97" t="s">
+        <v>660</v>
+      </c>
+      <c r="C27" s="97" t="s">
+        <v>792</v>
+      </c>
+      <c r="D27" s="157" t="s">
+        <v>793</v>
+      </c>
+      <c r="E27" s="158"/>
+      <c r="F27" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="201">
+        <v>42472</v>
+      </c>
       <c r="I27" s="151"/>
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
@@ -17636,22 +17782,28 @@
     </row>
     <row r="28" spans="1:248" s="91" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="138" t="str">
-        <f t="shared" ref="A28:A32" si="4">IF(OR(B28&lt;&gt;"",D28&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="2"/>
         <v>[Admin Module-18]</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>669</v>
+        <v>794</v>
       </c>
       <c r="D28" s="157" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="E28" s="158"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="100"/>
+      <c r="F28" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="201">
+        <v>42472</v>
+      </c>
       <c r="I28" s="147"/>
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
@@ -17895,22 +18047,28 @@
     </row>
     <row r="29" spans="1:248" s="91" customFormat="1" ht="14.25" customHeight="1">
       <c r="A29" s="138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>[Admin Module-19]</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="D29" s="157" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="E29" s="158"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="100"/>
+      <c r="F29" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="201">
+        <v>42472</v>
+      </c>
       <c r="I29" s="147"/>
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
@@ -18154,22 +18312,28 @@
     </row>
     <row r="30" spans="1:248" s="91" customFormat="1" ht="14.25" customHeight="1">
       <c r="A30" s="138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>[Admin Module-20]</v>
       </c>
       <c r="B30" s="97" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="D30" s="157" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="E30" s="158"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="100"/>
+      <c r="F30" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="201">
+        <v>42472</v>
+      </c>
       <c r="I30" s="147"/>
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
@@ -18412,23 +18576,18 @@
       <c r="IN30" s="90"/>
     </row>
     <row r="31" spans="1:248" s="91" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A31" s="138" t="str">
-        <f t="shared" si="4"/>
-        <v>[Admin Module-21]</v>
-      </c>
-      <c r="B31" s="97" t="s">
-        <v>677</v>
-      </c>
-      <c r="C31" s="97" t="s">
-        <v>678</v>
-      </c>
-      <c r="D31" s="157" t="s">
-        <v>679</v>
-      </c>
-      <c r="E31" s="158"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="100"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="149" t="s">
+        <v>795</v>
+      </c>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="201">
+        <v>42472</v>
+      </c>
       <c r="I31" s="147"/>
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
@@ -18672,22 +18831,28 @@
     </row>
     <row r="32" spans="1:248" s="91" customFormat="1" ht="14.25" customHeight="1">
       <c r="A32" s="138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A32:A40" si="3">IF(OR(B32&lt;&gt;"",D32&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin Module-22]</v>
       </c>
       <c r="B32" s="97" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="D32" s="157" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="E32" s="158"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="100"/>
+      <c r="F32" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="201">
+        <v>42472</v>
+      </c>
       <c r="I32" s="147"/>
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
@@ -18935,18 +19100,24 @@
         <v>[Admin Module-23]</v>
       </c>
       <c r="B33" s="97" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="D33" s="157" t="s">
-        <v>144</v>
+        <v>674</v>
       </c>
       <c r="E33" s="158"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="100"/>
+      <c r="F33" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="201">
+        <v>42472</v>
+      </c>
       <c r="I33" s="147"/>
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
@@ -19189,16 +19360,29 @@
       <c r="IN33" s="90"/>
     </row>
     <row r="34" spans="1:248" ht="14.25" customHeight="1">
-      <c r="A34" s="200" t="s">
-        <v>736</v>
-      </c>
-      <c r="B34" s="201"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
+      <c r="A34" s="138" t="str">
+        <f t="shared" si="3"/>
+        <v>[Admin Module-24]</v>
+      </c>
+      <c r="B34" s="97" t="s">
+        <v>675</v>
+      </c>
+      <c r="C34" s="97" t="s">
+        <v>673</v>
+      </c>
+      <c r="D34" s="157" t="s">
+        <v>676</v>
+      </c>
+      <c r="E34" s="158"/>
+      <c r="F34" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="201">
+        <v>42472</v>
+      </c>
       <c r="I34" s="151"/>
       <c r="J34" s="90"/>
     </row>
@@ -19208,18 +19392,24 @@
         <v>[Admin Module-25]</v>
       </c>
       <c r="B35" s="97" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="D35" s="157" t="s">
-        <v>687</v>
-      </c>
-      <c r="E35" s="140"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="100"/>
+        <v>678</v>
+      </c>
+      <c r="E35" s="158"/>
+      <c r="F35" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="201">
+        <v>42472</v>
+      </c>
       <c r="I35" s="140"/>
       <c r="J35" s="90"/>
     </row>
@@ -19229,18 +19419,24 @@
         <v>[Admin Module-26]</v>
       </c>
       <c r="B36" s="97" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="D36" s="157" t="s">
-        <v>690</v>
-      </c>
-      <c r="E36" s="140"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="100"/>
+        <v>680</v>
+      </c>
+      <c r="E36" s="158"/>
+      <c r="F36" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="201">
+        <v>42472</v>
+      </c>
       <c r="I36" s="140"/>
       <c r="J36" s="90"/>
     </row>
@@ -19250,18 +19446,24 @@
         <v>[Admin Module-27]</v>
       </c>
       <c r="B37" s="97" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="D37" s="157" t="s">
-        <v>692</v>
-      </c>
-      <c r="E37" s="140"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="100"/>
+        <v>683</v>
+      </c>
+      <c r="E37" s="158"/>
+      <c r="F37" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="201">
+        <v>42472</v>
+      </c>
       <c r="I37" s="97"/>
       <c r="J37" s="90"/>
     </row>
@@ -19271,18 +19473,24 @@
         <v>[Admin Module-28]</v>
       </c>
       <c r="B38" s="97" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D38" s="157" t="s">
-        <v>694</v>
-      </c>
-      <c r="E38" s="140"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="100"/>
+        <v>686</v>
+      </c>
+      <c r="E38" s="158"/>
+      <c r="F38" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="201">
+        <v>42472</v>
+      </c>
       <c r="I38" s="97"/>
       <c r="J38" s="90"/>
     </row>
@@ -19292,18 +19500,24 @@
         <v>[Admin Module-29]</v>
       </c>
       <c r="B39" s="97" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="C39" s="97" t="s">
+        <v>688</v>
+      </c>
+      <c r="D39" s="157" t="s">
         <v>689</v>
       </c>
-      <c r="D39" s="157" t="s">
-        <v>696</v>
-      </c>
-      <c r="E39" s="140"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="100"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="201">
+        <v>42472</v>
+      </c>
       <c r="I39" s="97"/>
       <c r="J39" s="90"/>
     </row>
@@ -19313,305 +19527,380 @@
         <v>[Admin Module-30]</v>
       </c>
       <c r="B40" s="97" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="D40" s="157" t="s">
-        <v>699</v>
-      </c>
-      <c r="E40" s="140"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="100"/>
+        <v>692</v>
+      </c>
+      <c r="E40" s="158"/>
+      <c r="F40" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="201">
+        <v>42472</v>
+      </c>
       <c r="I40" s="97"/>
       <c r="J40" s="90"/>
     </row>
     <row r="41" spans="1:248" ht="14.25" customHeight="1">
-      <c r="A41" s="138" t="str">
-        <f t="shared" si="3"/>
-        <v>[Admin Module-31]</v>
-      </c>
-      <c r="B41" s="97" t="s">
-        <v>700</v>
-      </c>
-      <c r="C41" s="97" t="s">
-        <v>701</v>
-      </c>
-      <c r="D41" s="157" t="s">
-        <v>702</v>
-      </c>
-      <c r="E41" s="140"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="100"/>
+      <c r="A41" s="138"/>
+      <c r="B41" s="149" t="s">
+        <v>796</v>
+      </c>
+      <c r="C41" s="150"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="201">
+        <v>42472</v>
+      </c>
       <c r="I41" s="97"/>
       <c r="J41" s="90"/>
     </row>
     <row r="42" spans="1:248" ht="14.25" customHeight="1">
       <c r="A42" s="138" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A42:A52" si="4">IF(OR(B42&lt;&gt;"",D42&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin Module-32]</v>
       </c>
       <c r="B42" s="97" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="D42" s="157" t="s">
-        <v>705</v>
-      </c>
-      <c r="E42" s="140"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="100"/>
+        <v>695</v>
+      </c>
+      <c r="E42" s="158"/>
+      <c r="F42" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="201">
+        <v>42472</v>
+      </c>
       <c r="I42" s="97"/>
       <c r="J42" s="90"/>
     </row>
     <row r="43" spans="1:248" ht="15" customHeight="1">
       <c r="A43" s="138" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[Admin Module-33]</v>
       </c>
       <c r="B43" s="97" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="D43" s="157" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="E43" s="158"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="146"/>
+      <c r="F43" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="201">
+        <v>42472</v>
+      </c>
       <c r="I43" s="148"/>
       <c r="J43" s="90"/>
     </row>
     <row r="44" spans="1:248" ht="14.25" customHeight="1">
-      <c r="A44" s="200" t="s">
-        <v>737</v>
-      </c>
-      <c r="B44" s="201"/>
-      <c r="C44" s="150"/>
-      <c r="D44" s="150"/>
-      <c r="E44" s="150"/>
-      <c r="F44" s="150"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
+      <c r="A44" s="138" t="str">
+        <f t="shared" si="4"/>
+        <v>[Admin Module-34]</v>
+      </c>
+      <c r="B44" s="97" t="s">
+        <v>699</v>
+      </c>
+      <c r="C44" s="97" t="s">
+        <v>697</v>
+      </c>
+      <c r="D44" s="157" t="s">
+        <v>700</v>
+      </c>
+      <c r="E44" s="158"/>
+      <c r="F44" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="201">
+        <v>42472</v>
+      </c>
       <c r="I44" s="151"/>
       <c r="J44" s="90"/>
     </row>
     <row r="45" spans="1:248" ht="14.25" customHeight="1">
       <c r="A45" s="138" t="str">
-        <f t="shared" ref="A45:A55" si="5">IF(OR(B45&lt;&gt;"",D45&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="4"/>
         <v>[Admin Module-35]</v>
       </c>
       <c r="B45" s="97" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="D45" s="157" t="s">
-        <v>711</v>
-      </c>
-      <c r="E45" s="140"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="100"/>
+        <v>702</v>
+      </c>
+      <c r="E45" s="158"/>
+      <c r="F45" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="201">
+        <v>42472</v>
+      </c>
       <c r="I45" s="140"/>
       <c r="J45" s="90"/>
     </row>
     <row r="46" spans="1:248" ht="14.25" customHeight="1">
       <c r="A46" s="138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>[Admin Module-36]</v>
       </c>
       <c r="B46" s="97" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="D46" s="157" t="s">
-        <v>714</v>
-      </c>
-      <c r="E46" s="140"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="100"/>
+        <v>704</v>
+      </c>
+      <c r="E46" s="158"/>
+      <c r="F46" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="201">
+        <v>42472</v>
+      </c>
       <c r="I46" s="140"/>
       <c r="J46" s="90"/>
     </row>
     <row r="47" spans="1:248" ht="14.25" customHeight="1">
       <c r="A47" s="138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>[Admin Module-37]</v>
       </c>
       <c r="B47" s="97" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="D47" s="157" t="s">
-        <v>716</v>
-      </c>
-      <c r="E47" s="140"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="100"/>
+        <v>707</v>
+      </c>
+      <c r="E47" s="158"/>
+      <c r="F47" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="201">
+        <v>42472</v>
+      </c>
       <c r="I47" s="97"/>
       <c r="J47" s="90"/>
     </row>
     <row r="48" spans="1:248" ht="14.25" customHeight="1">
       <c r="A48" s="138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>[Admin Module-38]</v>
       </c>
       <c r="B48" s="97" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="D48" s="157" t="s">
-        <v>718</v>
-      </c>
-      <c r="E48" s="140"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="100"/>
+        <v>709</v>
+      </c>
+      <c r="E48" s="158"/>
+      <c r="F48" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="201">
+        <v>42472</v>
+      </c>
       <c r="I48" s="97"/>
       <c r="J48" s="90"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1">
       <c r="A49" s="138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>[Admin Module-39]</v>
       </c>
       <c r="B49" s="97" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="D49" s="157" t="s">
-        <v>720</v>
-      </c>
-      <c r="E49" s="140"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="100"/>
+        <v>711</v>
+      </c>
+      <c r="E49" s="158"/>
+      <c r="F49" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="201">
+        <v>42472</v>
+      </c>
       <c r="I49" s="97"/>
       <c r="J49" s="90"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1">
       <c r="A50" s="138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>[Admin Module-40]</v>
       </c>
       <c r="B50" s="97" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="D50" s="157" t="s">
-        <v>723</v>
-      </c>
-      <c r="E50" s="140"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="100"/>
+        <v>713</v>
+      </c>
+      <c r="E50" s="158"/>
+      <c r="F50" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="201">
+        <v>42472</v>
+      </c>
       <c r="I50" s="97"/>
       <c r="J50" s="90"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1">
       <c r="A51" s="138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>[Admin Module-41]</v>
       </c>
       <c r="B51" s="97" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="C51" s="97" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="D51" s="157" t="s">
-        <v>725</v>
-      </c>
-      <c r="E51" s="140"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="100"/>
+        <v>716</v>
+      </c>
+      <c r="E51" s="158"/>
+      <c r="F51" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="201">
+        <v>42472</v>
+      </c>
       <c r="I51" s="97"/>
       <c r="J51" s="90"/>
     </row>
     <row r="52" spans="1:10" ht="14.25" customHeight="1">
       <c r="A52" s="138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>[Admin Module-42]</v>
       </c>
       <c r="B52" s="97" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D52" s="157" t="s">
-        <v>727</v>
-      </c>
-      <c r="E52" s="140"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="100"/>
+        <v>719</v>
+      </c>
+      <c r="E52" s="158"/>
+      <c r="F52" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="201">
+        <v>42472</v>
+      </c>
       <c r="I52" s="97"/>
       <c r="J52" s="90"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1">
-      <c r="A53" s="138" t="str">
-        <f t="shared" si="5"/>
-        <v>[Admin Module-43]</v>
-      </c>
-      <c r="B53" s="97" t="s">
-        <v>728</v>
-      </c>
-      <c r="C53" s="97" t="s">
-        <v>722</v>
-      </c>
-      <c r="D53" s="157" t="s">
-        <v>729</v>
-      </c>
-      <c r="E53" s="158"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="146"/>
+      <c r="A53" s="138"/>
+      <c r="B53" s="149" t="s">
+        <v>720</v>
+      </c>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="150"/>
+      <c r="F53" s="150"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="201">
+        <v>42472</v>
+      </c>
       <c r="I53" s="148"/>
       <c r="J53" s="90"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1">
       <c r="A54" s="138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A54:A80" si="5">IF(OR(B54&lt;&gt;"",D54&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin Module-44]</v>
       </c>
       <c r="B54" s="97" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="C54" s="97" t="s">
-        <v>731</v>
+        <v>694</v>
       </c>
       <c r="D54" s="157" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="E54" s="158"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="146"/>
+      <c r="F54" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="201">
+        <v>42472</v>
+      </c>
       <c r="I54" s="171"/>
       <c r="J54" s="90"/>
     </row>
@@ -19621,557 +19910,726 @@
         <v>[Admin Module-45]</v>
       </c>
       <c r="B55" s="97" t="s">
-        <v>733</v>
+        <v>696</v>
       </c>
       <c r="C55" s="97" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="D55" s="157" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="E55" s="158"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="146"/>
+      <c r="F55" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="201">
+        <v>42472</v>
+      </c>
       <c r="I55" s="171"/>
       <c r="J55" s="90"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A56" s="138"/>
-      <c r="B56" s="149" t="s">
-        <v>739</v>
-      </c>
-      <c r="C56" s="150"/>
-      <c r="D56" s="150"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
+      <c r="A56" s="138" t="str">
+        <f t="shared" si="5"/>
+        <v>[Admin Module-46]</v>
+      </c>
+      <c r="B56" s="97" t="s">
+        <v>725</v>
+      </c>
+      <c r="C56" s="97" t="s">
+        <v>723</v>
+      </c>
+      <c r="D56" s="157" t="s">
+        <v>726</v>
+      </c>
+      <c r="E56" s="158"/>
+      <c r="F56" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="201">
+        <v>42472</v>
+      </c>
       <c r="I56" s="151"/>
       <c r="J56" s="90"/>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1">
       <c r="A57" s="138" t="str">
-        <f t="shared" ref="A57:A83" si="6">IF(OR(B57&lt;&gt;"",D57&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="5"/>
         <v>[Admin Module-47]</v>
       </c>
       <c r="B57" s="97" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C57" s="97" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="D57" s="157" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="E57" s="158"/>
-      <c r="F57" s="97"/>
-      <c r="G57" s="97"/>
-      <c r="H57" s="146"/>
+      <c r="F57" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="201">
+        <v>42472</v>
+      </c>
       <c r="I57" s="171"/>
       <c r="J57" s="90"/>
     </row>
     <row r="58" spans="1:10" ht="14.25" customHeight="1">
       <c r="A58" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-48]</v>
       </c>
       <c r="B58" s="97" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="C58" s="97" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
       <c r="D58" s="157" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="E58" s="158"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="146"/>
+      <c r="F58" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="201">
+        <v>42472</v>
+      </c>
       <c r="I58" s="171"/>
       <c r="J58" s="90"/>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1">
       <c r="A59" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-49]</v>
       </c>
       <c r="B59" s="97" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="C59" s="97" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="D59" s="157" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="E59" s="158"/>
-      <c r="F59" s="97"/>
-      <c r="G59" s="97"/>
-      <c r="H59" s="146"/>
+      <c r="F59" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="201">
+        <v>42472</v>
+      </c>
       <c r="I59" s="171"/>
       <c r="J59" s="90"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1">
       <c r="A60" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-50]</v>
       </c>
       <c r="B60" s="97" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="C60" s="97" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="D60" s="157" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="E60" s="158"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="146"/>
+      <c r="F60" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="201">
+        <v>42472</v>
+      </c>
       <c r="I60" s="171"/>
       <c r="J60" s="90"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
       <c r="A61" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-51]</v>
       </c>
       <c r="B61" s="97" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="C61" s="97" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="D61" s="157" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="E61" s="158"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="146"/>
+      <c r="F61" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="201">
+        <v>42472</v>
+      </c>
       <c r="I61" s="171"/>
       <c r="J61" s="90"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1">
       <c r="A62" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-52]</v>
       </c>
       <c r="B62" s="97" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="C62" s="97" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="D62" s="157" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="E62" s="158"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="146"/>
+      <c r="F62" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" s="201">
+        <v>42472</v>
+      </c>
       <c r="I62" s="171"/>
       <c r="J62" s="90"/>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1">
       <c r="A63" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-53]</v>
       </c>
       <c r="B63" s="97" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="C63" s="97" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="D63" s="157" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="E63" s="158"/>
-      <c r="F63" s="97"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="146"/>
+      <c r="F63" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="201">
+        <v>42472</v>
+      </c>
       <c r="I63" s="171"/>
       <c r="J63" s="90"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-54]</v>
       </c>
       <c r="B64" s="97" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="C64" s="97" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D64" s="157" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="E64" s="158"/>
-      <c r="F64" s="97"/>
-      <c r="G64" s="97"/>
-      <c r="H64" s="146"/>
+      <c r="F64" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="201">
+        <v>42472</v>
+      </c>
       <c r="I64" s="171"/>
       <c r="J64" s="90"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-55]</v>
       </c>
       <c r="B65" s="97" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="C65" s="97" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="D65" s="157" t="s">
-        <v>759</v>
-      </c>
-      <c r="E65" s="158"/>
-      <c r="F65" s="97"/>
-      <c r="G65" s="97"/>
-      <c r="H65" s="146"/>
+        <v>749</v>
+      </c>
+      <c r="E65" s="140"/>
+      <c r="F65" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" s="201">
+        <v>42472</v>
+      </c>
       <c r="I65" s="171"/>
       <c r="J65" s="90"/>
     </row>
     <row r="66" spans="1:10" ht="14.25" customHeight="1">
       <c r="A66" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-56]</v>
       </c>
       <c r="B66" s="97" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="C66" s="97" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="D66" s="157" t="s">
-        <v>762</v>
-      </c>
-      <c r="E66" s="158"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="146"/>
+        <v>751</v>
+      </c>
+      <c r="E66" s="140"/>
+      <c r="F66" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="201">
+        <v>42472</v>
+      </c>
       <c r="I66" s="171"/>
       <c r="J66" s="90"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1">
       <c r="A67" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-57]</v>
       </c>
       <c r="B67" s="97" t="s">
-        <v>763</v>
+        <v>797</v>
       </c>
       <c r="C67" s="97" t="s">
-        <v>764</v>
+        <v>798</v>
       </c>
       <c r="D67" s="157" t="s">
-        <v>765</v>
-      </c>
-      <c r="E67" s="158"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="146"/>
+        <v>752</v>
+      </c>
+      <c r="E67" s="140"/>
+      <c r="F67" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="201">
+        <v>42472</v>
+      </c>
       <c r="I67" s="171"/>
       <c r="J67" s="90"/>
     </row>
     <row r="68" spans="1:10" ht="14.25" customHeight="1">
       <c r="A68" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-58]</v>
       </c>
       <c r="B68" s="97" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="C68" s="97" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="D68" s="157" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="E68" s="140"/>
-      <c r="F68" s="97"/>
-      <c r="G68" s="97"/>
-      <c r="H68" s="146"/>
+      <c r="F68" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="201">
+        <v>42472</v>
+      </c>
       <c r="I68" s="140"/>
       <c r="J68" s="90"/>
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1">
       <c r="A69" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-59]</v>
       </c>
       <c r="B69" s="97" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="C69" s="97" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="D69" s="157" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="E69" s="140"/>
-      <c r="F69" s="97"/>
-      <c r="G69" s="97"/>
-      <c r="H69" s="146"/>
+      <c r="F69" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" s="201">
+        <v>42472</v>
+      </c>
       <c r="I69" s="140"/>
       <c r="J69" s="90"/>
     </row>
     <row r="70" spans="1:10" ht="14.25" customHeight="1">
       <c r="A70" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-60]</v>
       </c>
       <c r="B70" s="97" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="C70" s="97" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="D70" s="157" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="E70" s="140"/>
-      <c r="F70" s="97"/>
-      <c r="G70" s="97"/>
-      <c r="H70" s="146"/>
+      <c r="F70" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" s="201">
+        <v>42472</v>
+      </c>
       <c r="I70" s="140"/>
       <c r="J70" s="90"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" customHeight="1">
       <c r="A71" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-61]</v>
       </c>
       <c r="B71" s="97" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="C71" s="97" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="D71" s="157" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="E71" s="140"/>
-      <c r="F71" s="97"/>
-      <c r="G71" s="97"/>
-      <c r="H71" s="146"/>
+      <c r="F71" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="201">
+        <v>42472</v>
+      </c>
       <c r="I71" s="140"/>
       <c r="J71" s="90"/>
     </row>
     <row r="72" spans="1:10" ht="15" customHeight="1">
       <c r="A72" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-62]</v>
       </c>
       <c r="B72" s="97" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="C72" s="97" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="D72" s="157" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="E72" s="140"/>
-      <c r="F72" s="97"/>
-      <c r="G72" s="97"/>
-      <c r="H72" s="146"/>
+      <c r="F72" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="201">
+        <v>42472</v>
+      </c>
       <c r="I72" s="140"/>
       <c r="J72" s="90"/>
     </row>
     <row r="73" spans="1:10" ht="14.25" customHeight="1">
       <c r="A73" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-63]</v>
       </c>
       <c r="B73" s="97" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="C73" s="97" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="D73" s="157" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="E73" s="140"/>
-      <c r="F73" s="97"/>
-      <c r="G73" s="97"/>
-      <c r="H73" s="146"/>
+      <c r="F73" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" s="201">
+        <v>42472</v>
+      </c>
       <c r="I73" s="140"/>
       <c r="J73" s="90"/>
     </row>
     <row r="74" spans="1:10" ht="14.25" customHeight="1">
       <c r="A74" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-64]</v>
       </c>
       <c r="B74" s="97" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="C74" s="97" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="D74" s="157" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="E74" s="140"/>
-      <c r="F74" s="97"/>
-      <c r="G74" s="97"/>
-      <c r="H74" s="146"/>
+      <c r="F74" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="201">
+        <v>42472</v>
+      </c>
       <c r="I74" s="140"/>
       <c r="J74" s="90"/>
     </row>
     <row r="75" spans="1:10" ht="13.5" customHeight="1">
       <c r="A75" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-65]</v>
       </c>
       <c r="B75" s="97" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="C75" s="97" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="D75" s="157" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="E75" s="140"/>
-      <c r="F75" s="97"/>
-      <c r="G75" s="97"/>
-      <c r="H75" s="146"/>
+      <c r="F75" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" s="201">
+        <v>42472</v>
+      </c>
       <c r="I75" s="140"/>
       <c r="J75" s="90"/>
     </row>
     <row r="76" spans="1:10" ht="13.5" customHeight="1">
       <c r="A76" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-66]</v>
       </c>
       <c r="B76" s="97" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="C76" s="97" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="D76" s="157" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="E76" s="140"/>
-      <c r="F76" s="97"/>
-      <c r="G76" s="97"/>
-      <c r="H76" s="146"/>
+      <c r="F76" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" s="201">
+        <v>42472</v>
+      </c>
       <c r="I76" s="140"/>
       <c r="J76" s="90"/>
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1">
       <c r="A77" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-67]</v>
       </c>
       <c r="B77" s="97" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="C77" s="97" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="D77" s="157" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="E77" s="140"/>
-      <c r="F77" s="97"/>
-      <c r="G77" s="97"/>
-      <c r="H77" s="146"/>
+      <c r="F77" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" s="201">
+        <v>42472</v>
+      </c>
       <c r="I77" s="140"/>
       <c r="J77" s="90"/>
     </row>
     <row r="78" spans="1:10" ht="13.5" customHeight="1">
       <c r="A78" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-68]</v>
       </c>
       <c r="B78" s="97" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="C78" s="97" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="D78" s="157" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="E78" s="140"/>
-      <c r="F78" s="97"/>
-      <c r="G78" s="97"/>
-      <c r="H78" s="146"/>
+      <c r="F78" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" s="201">
+        <v>42472</v>
+      </c>
       <c r="I78" s="140"/>
       <c r="J78" s="90"/>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1">
       <c r="A79" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-69]</v>
       </c>
       <c r="B79" s="97" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="C79" s="97" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="D79" s="157" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="E79" s="140"/>
-      <c r="F79" s="97"/>
-      <c r="G79" s="97"/>
-      <c r="H79" s="146"/>
+      <c r="F79" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" s="201">
+        <v>42472</v>
+      </c>
       <c r="I79" s="140"/>
       <c r="J79" s="90"/>
     </row>
     <row r="80" spans="1:10" ht="15" customHeight="1">
       <c r="A80" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>[Admin Module-70]</v>
       </c>
       <c r="B80" s="97" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="C80" s="97" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="D80" s="157" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="E80" s="140"/>
-      <c r="F80" s="97"/>
-      <c r="G80" s="97"/>
-      <c r="H80" s="146"/>
+      <c r="F80" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G80" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="201">
+        <v>42472</v>
+      </c>
       <c r="I80" s="140"/>
       <c r="J80" s="90"/>
     </row>
     <row r="81" spans="1:10" ht="14.25" customHeight="1">
       <c r="A81" s="138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A57:A83" si="6">IF(OR(B81&lt;&gt;"",D81&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin Module-71]</v>
       </c>
       <c r="B81" s="97" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="C81" s="97" t="s">
-        <v>797</v>
+        <v>776</v>
       </c>
       <c r="D81" s="157" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="E81" s="140"/>
-      <c r="F81" s="97"/>
-      <c r="G81" s="97"/>
-      <c r="H81" s="146"/>
+      <c r="F81" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G81" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="201">
+        <v>42472</v>
+      </c>
       <c r="I81" s="140"/>
       <c r="J81" s="90"/>
     </row>
@@ -20181,18 +20639,24 @@
         <v>[Admin Module-72]</v>
       </c>
       <c r="B82" s="97" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
       <c r="C82" s="97" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="D82" s="157" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
       <c r="E82" s="140"/>
-      <c r="F82" s="97"/>
-      <c r="G82" s="97"/>
-      <c r="H82" s="146"/>
+      <c r="F82" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="201">
+        <v>42472</v>
+      </c>
       <c r="I82" s="140"/>
       <c r="J82" s="90"/>
     </row>
@@ -20202,40 +20666,42 @@
         <v>[Admin Module-73]</v>
       </c>
       <c r="B83" s="97" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="C83" s="97" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="D83" s="157" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
       <c r="E83" s="140"/>
-      <c r="F83" s="97"/>
-      <c r="G83" s="97"/>
-      <c r="H83" s="146"/>
+      <c r="F83" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="201">
+        <v>42472</v>
+      </c>
       <c r="I83" s="140"/>
       <c r="J83" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="B11:I11"/>
+  <mergeCells count="6">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B11:I11"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G21 F23:G26 F28:G28 F30:G33 F35:G42 F45:G52">
-      <formula1>$J$1:$J$5</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G12:G20 F32:G40 F13:F20 F26:G30 F22:G24 F42:G52 F54:G83">
+      <formula1>$J$2:$J$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F43:G43 F53:G55 F57:G83">
-      <formula1>$J$2:$J$6</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12">
+      <formula1>TestList</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -20335,7 +20801,7 @@
       </c>
       <c r="F3" s="177"/>
       <c r="G3" s="58" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H3" s="59"/>
     </row>
@@ -20353,7 +20819,7 @@
       </c>
       <c r="F4" s="177"/>
       <c r="G4" s="58" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H4" s="59"/>
     </row>
@@ -20371,7 +20837,7 @@
       </c>
       <c r="F5" s="177"/>
       <c r="G5" s="94" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H5" s="61"/>
     </row>
@@ -20450,23 +20916,23 @@
       </c>
       <c r="D11" s="125">
         <f>Common!A6</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E11" s="125">
         <f>Common!B6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="125">
         <f>Common!C6</f>
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G11" s="125">
         <f>Common!D6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="125">
         <f>Common!E6</f>
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1">
@@ -20475,7 +20941,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D12" s="125">
         <f>'Manage Event'!A6</f>
@@ -20504,7 +20970,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D13" s="125">
         <f>'Manage Thread'!A6</f>
@@ -20533,7 +20999,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="117" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D14" s="125">
         <f>'Manage Organization'!A6</f>
@@ -20562,7 +21028,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D15" s="125">
         <f>'User Profile'!A6</f>
@@ -20591,7 +21057,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="117" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D16" s="125">
         <f>Donate!A6</f>
@@ -20649,11 +21115,11 @@
         <v>8</v>
       </c>
       <c r="C18" s="117" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D18" s="116">
         <f>'Admin module'!A6</f>
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="E18" s="116">
         <f>'Admin module'!B6</f>
@@ -20661,7 +21127,7 @@
       </c>
       <c r="F18" s="116">
         <f>'Admin module'!C6</f>
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="G18" s="116">
         <f>'Admin module'!D6</f>
@@ -20669,7 +21135,7 @@
       </c>
       <c r="H18" s="116">
         <f>'Admin module'!E6</f>
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1">
@@ -20710,23 +21176,23 @@
       </c>
       <c r="D22" s="114">
         <f>SUM(D9:D20)</f>
-        <v>313</v>
+        <v>528</v>
       </c>
       <c r="E22" s="114">
         <f>SUM(E9:E20)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="114">
         <f>SUM(F11:F21)</f>
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="G22" s="114">
         <f>SUM(G11:G21)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22" s="115">
         <f>SUM(H11:H21)</f>
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -20748,7 +21214,7 @@
       <c r="D24" s="64"/>
       <c r="E24" s="71">
         <f>(D22+E22)*100/(H22-G22)</f>
-        <v>59.433962264150942</v>
+        <v>98.884758364312262</v>
       </c>
       <c r="F24" s="64" t="s">
         <v>43</v>
@@ -20765,7 +21231,7 @@
       <c r="D25" s="64"/>
       <c r="E25" s="71">
         <f>D22*100/(H22-G22)</f>
-        <v>59.056603773584904</v>
+        <v>98.141263940520446</v>
       </c>
       <c r="F25" s="64" t="s">
         <v>43</v>
@@ -20868,7 +21334,7 @@
       </c>
       <c r="C5" s="180"/>
       <c r="D5" s="181" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E5" s="181"/>
       <c r="F5" s="181"/>
@@ -20922,10 +21388,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="122" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D10" s="117" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E10" s="124"/>
       <c r="F10" s="124"/>
@@ -20935,10 +21401,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D11" s="117" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E11" s="123"/>
       <c r="F11" s="124"/>
@@ -20948,10 +21414,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="122" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E12" s="123"/>
       <c r="F12" s="124"/>
@@ -20961,10 +21427,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="122" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E13" s="123"/>
       <c r="F13" s="124"/>
@@ -20974,10 +21440,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="122" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E14" s="124"/>
       <c r="F14" s="124"/>
@@ -21000,10 +21466,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="122" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E16" s="124"/>
       <c r="F16" s="124"/>
@@ -21054,8 +21520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B39" sqref="A4:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -21099,7 +21565,7 @@
         <v>80</v>
       </c>
       <c r="B5" s="130" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C5" s="130"/>
     </row>
@@ -21144,7 +21610,7 @@
         <v>85</v>
       </c>
       <c r="B10" s="130" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C10" s="130"/>
     </row>
@@ -21189,7 +21655,7 @@
         <v>72</v>
       </c>
       <c r="B15" s="130" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C15" s="130"/>
     </row>
@@ -21198,7 +21664,7 @@
         <v>73</v>
       </c>
       <c r="B16" s="130" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C16" s="130"/>
     </row>
@@ -21333,7 +21799,7 @@
         <v>117</v>
       </c>
       <c r="B31" s="130" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C31" s="130"/>
     </row>
@@ -21342,7 +21808,7 @@
         <v>118</v>
       </c>
       <c r="B32" s="130" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C32" s="130"/>
     </row>
@@ -21351,7 +21817,7 @@
         <v>119</v>
       </c>
       <c r="B33" s="130" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C33" s="130"/>
     </row>
@@ -21360,7 +21826,7 @@
         <v>120</v>
       </c>
       <c r="B34" s="130" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C34" s="130"/>
     </row>
@@ -21369,7 +21835,7 @@
         <v>119</v>
       </c>
       <c r="B35" s="130" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C35" s="130"/>
     </row>
@@ -21378,34 +21844,34 @@
         <v>120</v>
       </c>
       <c r="B36" s="130" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C36" s="130"/>
     </row>
     <row r="37" spans="1:3" ht="15">
       <c r="A37" s="142" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B37" s="130" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C37" s="130"/>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" s="142" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B38" s="130" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C38" s="130"/>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" s="142" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B39" s="130" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C39" s="130"/>
     </row>
@@ -21423,10 +21889,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IP47"/>
+  <dimension ref="A1:IP57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38:H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -21456,7 +21922,7 @@
       <c r="H1" s="78"/>
       <c r="I1" s="78"/>
       <c r="J1" s="78" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K1" s="78"/>
       <c r="L1" s="78"/>
@@ -22220,7 +22686,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="187" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C4" s="188"/>
       <c r="D4" s="188"/>
@@ -22738,23 +23204,23 @@
     <row r="6" spans="1:250" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="86">
         <f>COUNTIF(F11:G156,"Pass")</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B6" s="87">
         <f>COUNTIF(F11:G156,"Fail")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="87">
         <f>E6-D6-B6-A6</f>
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D6" s="88">
         <f>COUNTIF(F11:G156,"N/A")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" s="193">
         <f>COUNTA(A11:A156)*2</f>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F6" s="194"/>
       <c r="G6" s="195"/>
@@ -23777,7 +24243,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G10" s="50" t="s">
         <v>123</v>
@@ -24033,7 +24499,7 @@
     <row r="11" spans="1:250" s="128" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="133"/>
       <c r="B11" s="133" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C11" s="134"/>
       <c r="D11" s="134"/>
@@ -24284,24 +24750,30 @@
       <c r="IO11" s="127"/>
       <c r="IP11" s="127"/>
     </row>
-    <row r="12" spans="1:250" s="126" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:250" s="126" customFormat="1" ht="13.5" customHeight="1">
       <c r="A12" s="96" t="str">
         <f>IF(OR(B15&lt;&gt;"",D12&lt;E12&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Common Module-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D12" s="143" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E12" s="136"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="100"/>
+      <c r="F12" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="100">
+        <v>42707</v>
+      </c>
       <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:250" s="126" customFormat="1" ht="14.25" customHeight="1">
@@ -24310,18 +24782,24 @@
         <v>[Common Module-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D13" s="143" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E13" s="136"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="100"/>
+      <c r="F13" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="100">
+        <v>42707</v>
+      </c>
       <c r="I13" s="101"/>
     </row>
     <row r="14" spans="1:250" s="126" customFormat="1" ht="12" customHeight="1">
@@ -24330,18 +24808,24 @@
         <v>[Common Module-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D14" s="143" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E14" s="136"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="100"/>
+      <c r="F14" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="100">
+        <v>42707</v>
+      </c>
       <c r="I14" s="101"/>
     </row>
     <row r="15" spans="1:250" s="126" customFormat="1" ht="12" customHeight="1">
@@ -24350,18 +24834,24 @@
         <v>[Common Module-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D15" s="143" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E15" s="136"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="100"/>
+      <c r="F15" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="100">
+        <v>42707</v>
+      </c>
       <c r="I15" s="101"/>
     </row>
     <row r="16" spans="1:250" ht="14.25" customHeight="1">
@@ -24624,15 +25114,23 @@
         <v>[Common Module-7]</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="97"/>
+        <v>168</v>
+      </c>
+      <c r="F17" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="100">
+        <v>42707</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="13.5" customHeight="1">
       <c r="A18" s="54" t="str">
@@ -24640,18 +25138,24 @@
         <v>[Common Module-8]</v>
       </c>
       <c r="B18" s="106" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C18" s="106" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D18" s="138" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E18" s="54"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="100"/>
+      <c r="F18" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="100">
+        <v>42707</v>
+      </c>
       <c r="I18" s="101"/>
     </row>
     <row r="19" spans="1:9" ht="13.5" customHeight="1">
@@ -24660,18 +25164,24 @@
         <v>[Common Module-9]</v>
       </c>
       <c r="B19" s="106" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C19" s="106" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D19" s="138" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E19" s="54"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="100"/>
+      <c r="F19" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="100">
+        <v>42707</v>
+      </c>
       <c r="I19" s="101"/>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1">
@@ -24680,18 +25190,24 @@
         <v>[Common Module-10]</v>
       </c>
       <c r="B20" s="106" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C20" s="106" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D20" s="138" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E20" s="54"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="100"/>
+      <c r="F20" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="100">
+        <v>42707</v>
+      </c>
       <c r="I20" s="101"/>
     </row>
     <row r="21" spans="1:9" ht="13.5" customHeight="1">
@@ -24700,18 +25216,24 @@
         <v>[Common Module-11]</v>
       </c>
       <c r="B21" s="106" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C21" s="106" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D21" s="138" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E21" s="54"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="100"/>
+      <c r="F21" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="100">
+        <v>42707</v>
+      </c>
       <c r="I21" s="101"/>
     </row>
     <row r="22" spans="1:9" ht="13.5" customHeight="1">
@@ -24720,18 +25242,24 @@
         <v>[Common Module-12]</v>
       </c>
       <c r="B22" s="106" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C22" s="106" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D22" s="138" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E22" s="54"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="100"/>
+      <c r="F22" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="100">
+        <v>42707</v>
+      </c>
       <c r="I22" s="101"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1">
@@ -24740,18 +25268,24 @@
         <v>[Common Module-13]</v>
       </c>
       <c r="B23" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="106" t="s">
         <v>196</v>
       </c>
-      <c r="C23" s="106" t="s">
-        <v>204</v>
-      </c>
       <c r="D23" s="138" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E23" s="54"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="100"/>
+      <c r="F23" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="100">
+        <v>42707</v>
+      </c>
       <c r="I23" s="101"/>
     </row>
     <row r="24" spans="1:9" ht="13.5" customHeight="1">
@@ -24760,18 +25294,24 @@
         <v>[Common Module-14]</v>
       </c>
       <c r="B24" s="106" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C24" s="106" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="138" t="s">
         <v>208</v>
       </c>
-      <c r="D24" s="138" t="s">
-        <v>216</v>
-      </c>
       <c r="E24" s="54"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="100"/>
+      <c r="F24" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="100">
+        <v>42707</v>
+      </c>
       <c r="I24" s="101"/>
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1">
@@ -24780,18 +25320,24 @@
         <v>[Common Module-15]</v>
       </c>
       <c r="B25" s="106" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C25" s="106" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D25" s="138" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E25" s="54"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="100"/>
+      <c r="F25" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="100">
+        <v>42707</v>
+      </c>
       <c r="I25" s="101"/>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1">
@@ -24800,18 +25346,24 @@
         <v>[Common Module-16]</v>
       </c>
       <c r="B26" s="106" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C26" s="106" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D26" s="138" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E26" s="54"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="100"/>
+      <c r="F26" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="100">
+        <v>42707</v>
+      </c>
       <c r="I26" s="101"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1">
@@ -24820,18 +25372,24 @@
         <v>[Common Module-17]</v>
       </c>
       <c r="B27" s="106" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C27" s="106" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D27" s="138" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E27" s="54"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="100"/>
+      <c r="F27" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="100">
+        <v>42707</v>
+      </c>
       <c r="I27" s="101"/>
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1">
@@ -24840,18 +25398,24 @@
         <v>[Common Module-18]</v>
       </c>
       <c r="B28" s="106" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="106" t="s">
         <v>201</v>
       </c>
-      <c r="C28" s="106" t="s">
-        <v>209</v>
-      </c>
       <c r="D28" s="138" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E28" s="54"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="100"/>
+      <c r="F28" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="100">
+        <v>42707</v>
+      </c>
       <c r="I28" s="101"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1">
@@ -24860,18 +25424,24 @@
         <v>[Common Module-19]</v>
       </c>
       <c r="B29" s="106" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C29" s="106" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D29" s="138" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E29" s="54"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="100"/>
+      <c r="F29" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="100">
+        <v>42707</v>
+      </c>
       <c r="I29" s="101"/>
     </row>
     <row r="30" spans="1:9" ht="13.5" customHeight="1">
@@ -24880,18 +25450,24 @@
         <v>[Common Module-20]</v>
       </c>
       <c r="B30" s="106" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C30" s="106" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D30" s="138" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E30" s="54"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="100"/>
+      <c r="F30" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="100">
+        <v>42707</v>
+      </c>
       <c r="I30" s="101"/>
     </row>
     <row r="31" spans="1:9" ht="13.5" customHeight="1">
@@ -24900,18 +25476,24 @@
         <v>[Common Module-21]</v>
       </c>
       <c r="B31" s="106" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C31" s="106" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D31" s="138" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E31" s="54"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="100"/>
+      <c r="F31" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="100">
+        <v>42707</v>
+      </c>
       <c r="I31" s="101"/>
     </row>
     <row r="32" spans="1:9" ht="12.75" customHeight="1">
@@ -24920,18 +25502,24 @@
         <v>[Common Module-22]</v>
       </c>
       <c r="B32" s="106" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C32" s="106" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D32" s="138" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E32" s="54"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="100"/>
+      <c r="F32" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="100">
+        <v>42707</v>
+      </c>
       <c r="I32" s="101"/>
     </row>
     <row r="33" spans="1:250" ht="12" customHeight="1">
@@ -24940,18 +25528,24 @@
         <v>[Common Module-23]</v>
       </c>
       <c r="B33" s="106" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C33" s="106" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D33" s="138" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E33" s="54"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="100"/>
+      <c r="F33" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="100">
+        <v>42707</v>
+      </c>
       <c r="I33" s="101"/>
     </row>
     <row r="34" spans="1:250" ht="12.75" customHeight="1">
@@ -24960,18 +25554,24 @@
         <v>[Common Module-24]</v>
       </c>
       <c r="B34" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="137" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="137" t="s">
-        <v>180</v>
-      </c>
       <c r="E34" s="54"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="100"/>
+      <c r="F34" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="100">
+        <v>42707</v>
+      </c>
       <c r="I34" s="101"/>
     </row>
     <row r="35" spans="1:250" ht="14.25" customHeight="1">
@@ -24980,18 +25580,24 @@
         <v>[Common Module-25]</v>
       </c>
       <c r="B35" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="95" t="s">
-        <v>177</v>
-      </c>
       <c r="D35" s="137" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E35" s="54"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="100"/>
+      <c r="F35" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="100">
+        <v>42707</v>
+      </c>
       <c r="I35" s="101"/>
     </row>
     <row r="36" spans="1:250" s="126" customFormat="1" ht="13.5" customHeight="1">
@@ -25000,24 +25606,30 @@
         <v>[Common Module-26]</v>
       </c>
       <c r="B36" s="97" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D36" s="143" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E36" s="54"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="100"/>
+      <c r="F36" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="100">
+        <v>42707</v>
+      </c>
       <c r="I36" s="101"/>
     </row>
     <row r="37" spans="1:250" ht="14.25" customHeight="1">
       <c r="A37" s="51"/>
       <c r="B37" s="51" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="52"/>
@@ -25277,15 +25889,21 @@
         <v>50</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D38" s="97" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E38" s="99"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="100"/>
+      <c r="F38" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="100">
+        <v>42707</v>
+      </c>
       <c r="I38" s="101"/>
     </row>
     <row r="39" spans="1:250" ht="17.25" customHeight="1">
@@ -25303,9 +25921,15 @@
         <v>53</v>
       </c>
       <c r="E39" s="99"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="100"/>
+      <c r="F39" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="100">
+        <v>42707</v>
+      </c>
       <c r="I39" s="101"/>
     </row>
     <row r="40" spans="1:250" ht="12" customHeight="1">
@@ -25320,12 +25944,18 @@
         <v>55</v>
       </c>
       <c r="D40" s="102" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E40" s="99"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="100"/>
+      <c r="F40" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="100">
+        <v>42707</v>
+      </c>
       <c r="I40" s="101"/>
     </row>
     <row r="41" spans="1:250" ht="13.5" customHeight="1">
@@ -25337,15 +25967,21 @@
         <v>92</v>
       </c>
       <c r="C41" s="106" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D41" s="106" t="s">
         <v>94</v>
       </c>
       <c r="E41" s="99"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="100"/>
+      <c r="F41" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="100">
+        <v>42707</v>
+      </c>
       <c r="I41" s="101"/>
     </row>
     <row r="42" spans="1:250" ht="12.75" customHeight="1">
@@ -25357,15 +25993,21 @@
         <v>93</v>
       </c>
       <c r="C42" s="106" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D42" s="106" t="s">
         <v>95</v>
       </c>
       <c r="E42" s="99"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="100"/>
+      <c r="F42" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="100">
+        <v>42707</v>
+      </c>
       <c r="I42" s="101"/>
     </row>
     <row r="43" spans="1:250" s="126" customFormat="1" ht="12.75" customHeight="1">
@@ -25380,12 +26022,18 @@
         <v>88</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>182</v>
+        <v>799</v>
       </c>
       <c r="E43" s="99"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
+      <c r="F43" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="100">
+        <v>42707</v>
+      </c>
       <c r="I43" s="101"/>
     </row>
     <row r="44" spans="1:250" ht="12.75">
@@ -25394,7 +26042,7 @@
         <v>[Common Module-34]</v>
       </c>
       <c r="B44" s="102" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C44" s="102" t="s">
         <v>90</v>
@@ -25403,9 +26051,15 @@
         <v>91</v>
       </c>
       <c r="E44" s="99"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
+      <c r="F44" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="100">
+        <v>42707</v>
+      </c>
       <c r="I44" s="101"/>
     </row>
     <row r="45" spans="1:250" ht="12.75">
@@ -25414,18 +26068,24 @@
         <v>[Common Module-35]</v>
       </c>
       <c r="B45" s="102" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C45" s="102" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D45" s="102" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E45" s="99"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
+      <c r="F45" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="100">
+        <v>42707</v>
+      </c>
       <c r="I45" s="101"/>
     </row>
     <row r="46" spans="1:250" ht="12.75">
@@ -25434,18 +26094,24 @@
         <v>[Common Module-36]</v>
       </c>
       <c r="B46" s="102" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C46" s="102" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D46" s="102" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E46" s="99"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
+      <c r="F46" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="100">
+        <v>42707</v>
+      </c>
       <c r="I46" s="101"/>
     </row>
     <row r="47" spans="1:250" ht="14.25" customHeight="1">
@@ -25454,19 +26120,285 @@
         <v>[Common Module-37]</v>
       </c>
       <c r="B47" s="102" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C47" s="102" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D47" s="102" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E47" s="99"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
+      <c r="F47" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="100">
+        <v>42707</v>
+      </c>
       <c r="I47" s="101"/>
+    </row>
+    <row r="48" spans="1:250" ht="12" customHeight="1">
+      <c r="A48" s="96" t="str">
+        <f>IF(OR(B48&lt;&gt;"",D48&lt;E42&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Common Module-38]</v>
+      </c>
+      <c r="B48" s="97" t="s">
+        <v>800</v>
+      </c>
+      <c r="C48" s="97" t="s">
+        <v>801</v>
+      </c>
+      <c r="D48" s="97" t="s">
+        <v>802</v>
+      </c>
+      <c r="E48" s="96"/>
+      <c r="F48" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="100">
+        <v>42707</v>
+      </c>
+      <c r="I48" s="101"/>
+    </row>
+    <row r="49" spans="1:9" ht="12" customHeight="1">
+      <c r="A49" s="96" t="str">
+        <f>IF(OR(B49&lt;&gt;"",D49&lt;E43&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Common Module-39]</v>
+      </c>
+      <c r="B49" s="97" t="s">
+        <v>803</v>
+      </c>
+      <c r="C49" s="97" t="s">
+        <v>804</v>
+      </c>
+      <c r="D49" s="97" t="s">
+        <v>805</v>
+      </c>
+      <c r="E49" s="96"/>
+      <c r="F49" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="100">
+        <v>42707</v>
+      </c>
+      <c r="I49" s="101"/>
+    </row>
+    <row r="50" spans="1:9" ht="12" customHeight="1">
+      <c r="A50" s="96" t="str">
+        <f t="shared" ref="A50:A55" si="5">IF(OR(B50&lt;&gt;"",D50&lt;E45&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Common Module-40]</v>
+      </c>
+      <c r="B50" s="97" t="s">
+        <v>806</v>
+      </c>
+      <c r="C50" s="97" t="s">
+        <v>807</v>
+      </c>
+      <c r="D50" s="97" t="s">
+        <v>808</v>
+      </c>
+      <c r="E50" s="96"/>
+      <c r="F50" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="100">
+        <v>42707</v>
+      </c>
+      <c r="I50" s="101"/>
+    </row>
+    <row r="51" spans="1:9" ht="12" customHeight="1">
+      <c r="A51" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>[Common Module-41]</v>
+      </c>
+      <c r="B51" s="97" t="s">
+        <v>809</v>
+      </c>
+      <c r="C51" s="97" t="s">
+        <v>810</v>
+      </c>
+      <c r="D51" s="97" t="s">
+        <v>811</v>
+      </c>
+      <c r="E51" s="96"/>
+      <c r="F51" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="100">
+        <v>42707</v>
+      </c>
+      <c r="I51" s="101"/>
+    </row>
+    <row r="52" spans="1:9" ht="12" customHeight="1">
+      <c r="A52" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>[Common Module-42]</v>
+      </c>
+      <c r="B52" s="97" t="s">
+        <v>812</v>
+      </c>
+      <c r="C52" s="97" t="s">
+        <v>813</v>
+      </c>
+      <c r="D52" s="97" t="s">
+        <v>814</v>
+      </c>
+      <c r="E52" s="96"/>
+      <c r="F52" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="100">
+        <v>42707</v>
+      </c>
+      <c r="I52" s="101"/>
+    </row>
+    <row r="53" spans="1:9" ht="12" customHeight="1">
+      <c r="A53" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>[Common Module-43]</v>
+      </c>
+      <c r="B53" s="97" t="s">
+        <v>815</v>
+      </c>
+      <c r="C53" s="97" t="s">
+        <v>816</v>
+      </c>
+      <c r="D53" s="97" t="s">
+        <v>817</v>
+      </c>
+      <c r="E53" s="96"/>
+      <c r="F53" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="100">
+        <v>42707</v>
+      </c>
+      <c r="I53" s="101"/>
+    </row>
+    <row r="54" spans="1:9" ht="12" customHeight="1">
+      <c r="A54" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>[Common Module-44]</v>
+      </c>
+      <c r="B54" s="97" t="s">
+        <v>818</v>
+      </c>
+      <c r="C54" s="97" t="s">
+        <v>819</v>
+      </c>
+      <c r="D54" s="97" t="s">
+        <v>820</v>
+      </c>
+      <c r="E54" s="96"/>
+      <c r="F54" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="100">
+        <v>42707</v>
+      </c>
+      <c r="I54" s="101"/>
+    </row>
+    <row r="55" spans="1:9" ht="12" customHeight="1">
+      <c r="A55" s="96" t="str">
+        <f t="shared" si="5"/>
+        <v>[Common Module-45]</v>
+      </c>
+      <c r="B55" s="97" t="s">
+        <v>821</v>
+      </c>
+      <c r="C55" s="97" t="s">
+        <v>822</v>
+      </c>
+      <c r="D55" s="97" t="s">
+        <v>823</v>
+      </c>
+      <c r="E55" s="96"/>
+      <c r="F55" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="100">
+        <v>42707</v>
+      </c>
+      <c r="I55" s="101"/>
+    </row>
+    <row r="56" spans="1:9" ht="12" customHeight="1">
+      <c r="A56" s="96" t="str">
+        <f>IF(OR(B56&lt;&gt;"",D56&lt;E50&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Common Module-46]</v>
+      </c>
+      <c r="B56" s="97" t="s">
+        <v>824</v>
+      </c>
+      <c r="C56" s="97" t="s">
+        <v>825</v>
+      </c>
+      <c r="D56" s="97" t="s">
+        <v>826</v>
+      </c>
+      <c r="E56" s="96"/>
+      <c r="F56" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="100">
+        <v>42707</v>
+      </c>
+      <c r="I56" s="101"/>
+    </row>
+    <row r="57" spans="1:9" ht="12" customHeight="1">
+      <c r="A57" s="96" t="str">
+        <f>IF(OR(B57&lt;&gt;"",D57&lt;E51&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Common Module-47]</v>
+      </c>
+      <c r="B57" s="97" t="s">
+        <v>827</v>
+      </c>
+      <c r="C57" s="97" t="s">
+        <v>828</v>
+      </c>
+      <c r="D57" s="97" t="s">
+        <v>829</v>
+      </c>
+      <c r="E57" s="96"/>
+      <c r="F57" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="100">
+        <v>42707</v>
+      </c>
+      <c r="I57" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -25477,7 +26409,7 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:F15 G11:G15 F18:G36 F38:G47">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G11:G15 F17:G36 F38:G57 F12:F15">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -25782,7 +26714,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="196" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C2" s="196"/>
       <c r="D2" s="196"/>
@@ -26047,7 +26979,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="196" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C3" s="196"/>
       <c r="D3" s="196"/>
@@ -26312,7 +27244,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="197" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C4" s="197"/>
       <c r="D4" s="197"/>
@@ -27897,10 +28829,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -28153,7 +29085,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -28410,13 +29342,13 @@
         <v>[Manage Event-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="106" t="s">
@@ -28438,13 +29370,13 @@
         <v>[Manage Event-3]</v>
       </c>
       <c r="B13" s="102" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E13" s="104"/>
       <c r="F13" s="106" t="s">
@@ -28466,13 +29398,13 @@
         <v>[Manage Event-4]</v>
       </c>
       <c r="B14" s="102" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E14" s="104"/>
       <c r="F14" s="106" t="s">
@@ -28494,13 +29426,13 @@
         <v>[Manage Event-5]</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E15" s="104"/>
       <c r="F15" s="106" t="s">
@@ -28522,13 +29454,13 @@
         <v>[Manage Event-6]</v>
       </c>
       <c r="B16" s="102" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E16" s="104"/>
       <c r="F16" s="106" t="s">
@@ -28550,13 +29482,13 @@
         <v>[Manage Event-7]</v>
       </c>
       <c r="B17" s="102" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E17" s="104"/>
       <c r="F17" s="106" t="s">
@@ -28578,13 +29510,13 @@
         <v>[Manage Event-8]</v>
       </c>
       <c r="B18" s="102" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E18" s="104"/>
       <c r="F18" s="106" t="s">
@@ -28606,13 +29538,13 @@
         <v>[Manage Event-9]</v>
       </c>
       <c r="B19" s="102" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E19" s="104"/>
       <c r="F19" s="106" t="s">
@@ -28634,13 +29566,13 @@
         <v>[Manage Event-10]</v>
       </c>
       <c r="B20" s="102" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D20" s="102" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E20" s="104"/>
       <c r="F20" s="106" t="s">
@@ -28662,13 +29594,13 @@
         <v>[Manage Event-11]</v>
       </c>
       <c r="B21" s="102" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E21" s="104"/>
       <c r="F21" s="106" t="s">
@@ -28690,13 +29622,13 @@
         <v>[Manage Event-12]</v>
       </c>
       <c r="B22" s="102" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D22" s="102" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E22" s="104"/>
       <c r="F22" s="106" t="s">
@@ -28718,13 +29650,13 @@
         <v>[Manage Event-13]</v>
       </c>
       <c r="B23" s="102" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E23" s="104"/>
       <c r="F23" s="106" t="s">
@@ -28746,13 +29678,13 @@
         <v>[Manage Event-14]</v>
       </c>
       <c r="B24" s="102" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E24" s="104"/>
       <c r="F24" s="106" t="s">
@@ -28773,13 +29705,13 @@
         <v>[Manage Event-15]</v>
       </c>
       <c r="B25" s="102" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D25" s="102" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E25" s="104"/>
       <c r="F25" s="106" t="s">
@@ -28801,13 +29733,13 @@
         <v>[Manage Event-16]</v>
       </c>
       <c r="B26" s="102" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D26" s="102" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E26" s="104"/>
       <c r="F26" s="106" t="s">
@@ -28829,13 +29761,13 @@
         <v>[Manage Event-17]</v>
       </c>
       <c r="B27" s="102" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E27" s="104"/>
       <c r="F27" s="106" t="s">
@@ -28857,13 +29789,13 @@
         <v>[Manage Event-18]</v>
       </c>
       <c r="B28" s="102" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E28" s="104"/>
       <c r="F28" s="106" t="s">
@@ -28885,13 +29817,13 @@
         <v>[Manage Event-19]</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D29" s="102" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E29" s="104"/>
       <c r="F29" s="106" t="s">
@@ -28913,13 +29845,13 @@
         <v>[Manage Event-20]</v>
       </c>
       <c r="B30" s="102" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D30" s="102" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E30" s="104"/>
       <c r="F30" s="106" t="s">
@@ -28941,13 +29873,13 @@
         <v>[Manage Event-21]</v>
       </c>
       <c r="B31" s="102" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D31" s="102" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E31" s="104"/>
       <c r="F31" s="106" t="s">
@@ -28969,13 +29901,13 @@
         <v>[Manage Event-22]</v>
       </c>
       <c r="B32" s="102" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D32" s="102" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E32" s="104"/>
       <c r="F32" s="106" t="s">
@@ -28997,13 +29929,13 @@
         <v>[Manage Event-23]</v>
       </c>
       <c r="B33" s="102" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D33" s="102" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E33" s="104"/>
       <c r="F33" s="106" t="s">
@@ -29025,13 +29957,13 @@
         <v>[Manage Event-24]</v>
       </c>
       <c r="B34" s="102" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D34" s="102" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E34" s="104"/>
       <c r="F34" s="106" t="s">
@@ -29053,13 +29985,13 @@
         <v>[Manage Event-25]</v>
       </c>
       <c r="B35" s="102" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D35" s="102" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E35" s="104"/>
       <c r="F35" s="106" t="s">
@@ -29080,13 +30012,13 @@
         <v>[Manage Event-26]</v>
       </c>
       <c r="B36" s="102" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D36" s="102" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E36" s="104"/>
       <c r="F36" s="106" t="s">
@@ -29107,13 +30039,13 @@
         <v>[Manage Event-27]</v>
       </c>
       <c r="B37" s="102" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E37" s="102"/>
       <c r="F37" s="106" t="s">
@@ -29134,13 +30066,13 @@
         <v>[Manage Event-28]</v>
       </c>
       <c r="B38" s="102" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D38" s="102" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E38" s="104"/>
       <c r="F38" s="106" t="s">
@@ -29161,13 +30093,13 @@
         <v>[Manage Event-29]</v>
       </c>
       <c r="B39" s="102" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D39" s="102" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E39" s="104"/>
       <c r="F39" s="106" t="s">
@@ -29188,13 +30120,13 @@
         <v>[Manage Event-30]</v>
       </c>
       <c r="B40" s="102" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D40" s="102" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E40" s="104"/>
       <c r="F40" s="106" t="s">
@@ -29215,13 +30147,13 @@
         <v>[Manage Event-31]</v>
       </c>
       <c r="B41" s="102" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D41" s="102" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E41" s="104"/>
       <c r="F41" s="106" t="s">
@@ -29242,13 +30174,13 @@
         <v>[Manage Event-32]</v>
       </c>
       <c r="B42" s="102" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D42" s="102" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="E42" s="104"/>
       <c r="F42" s="106" t="s">
@@ -29269,13 +30201,13 @@
         <v>[Manage Event-33]</v>
       </c>
       <c r="B43" s="102" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D43" s="102" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="E43" s="104"/>
       <c r="F43" s="106" t="s">
@@ -29296,13 +30228,13 @@
         <v>[Manage Event-34]</v>
       </c>
       <c r="B44" s="102" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D44" s="102" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E44" s="104"/>
       <c r="F44" s="106" t="s">
@@ -29323,13 +30255,13 @@
         <v>[Manage Event-35]</v>
       </c>
       <c r="B45" s="97" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D45" s="97" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E45" s="104"/>
       <c r="F45" s="106" t="s">
@@ -29350,13 +30282,13 @@
         <v>[Manage Event-36]</v>
       </c>
       <c r="B46" s="97" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D46" s="97" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E46" s="104"/>
       <c r="F46" s="106" t="s">
@@ -29377,13 +30309,13 @@
         <v>[Manage Event-37]</v>
       </c>
       <c r="B47" s="97" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D47" s="97" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="E47" s="104"/>
       <c r="F47" s="106" t="s">
@@ -29404,13 +30336,13 @@
         <v>[Manage Event-38]</v>
       </c>
       <c r="B48" s="97" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D48" s="97" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E48" s="104"/>
       <c r="F48" s="106" t="s">
@@ -29431,13 +30363,13 @@
         <v>[Manage Event-39]</v>
       </c>
       <c r="B49" s="102" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D49" s="97" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E49" s="104"/>
       <c r="F49" s="106" t="s">
@@ -29458,13 +30390,13 @@
         <v>[Manage Event-40]</v>
       </c>
       <c r="B50" s="102" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D50" s="97" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E50" s="104"/>
       <c r="F50" s="106" t="s">
@@ -29485,13 +30417,13 @@
         <v>[Manage Event-41]</v>
       </c>
       <c r="B51" s="102" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C51" s="97" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D51" s="97" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E51" s="104"/>
       <c r="F51" s="106" t="s">
@@ -29512,13 +30444,13 @@
         <v>[Manage Event-42]</v>
       </c>
       <c r="B52" s="102" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D52" s="97" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E52" s="104"/>
       <c r="F52" s="106" t="s">
@@ -29539,13 +30471,13 @@
         <v>[Manage Event-43]</v>
       </c>
       <c r="B53" s="102" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C53" s="97" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D53" s="97" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E53" s="104"/>
       <c r="F53" s="106" t="s">
@@ -29566,13 +30498,13 @@
         <v>[Manage Event-44]</v>
       </c>
       <c r="B54" s="97" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C54" s="97" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D54" s="97" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="E54" s="104"/>
       <c r="F54" s="106" t="s">
@@ -29593,13 +30525,13 @@
         <v>[Manage Event-45]</v>
       </c>
       <c r="B55" s="97" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C55" s="97" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D55" s="97" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="E55" s="104"/>
       <c r="F55" s="106" t="s">
@@ -29620,13 +30552,13 @@
         <v>[Manage Event-46]</v>
       </c>
       <c r="B56" s="97" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C56" s="97" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D56" s="97" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E56" s="104"/>
       <c r="F56" s="106" t="s">
@@ -29647,13 +30579,13 @@
         <v>[Manage Event-47]</v>
       </c>
       <c r="B57" s="102" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C57" s="97" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D57" s="97" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E57" s="104"/>
       <c r="F57" s="106" t="s">
@@ -29674,13 +30606,13 @@
         <v>[Manage Event-48]</v>
       </c>
       <c r="B58" s="102" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C58" s="97" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D58" s="97" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E58" s="104"/>
       <c r="F58" s="106" t="s">
@@ -29701,13 +30633,13 @@
         <v>[Manage Event-49]</v>
       </c>
       <c r="B59" s="102" t="s">
+        <v>540</v>
+      </c>
+      <c r="C59" s="97" t="s">
         <v>548</v>
       </c>
-      <c r="C59" s="97" t="s">
-        <v>556</v>
-      </c>
       <c r="D59" s="103" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="E59" s="104"/>
       <c r="F59" s="106" t="s">
@@ -29728,13 +30660,13 @@
         <v>[Manage Event-50]</v>
       </c>
       <c r="B60" s="102" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C60" s="97" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D60" s="103" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E60" s="104"/>
       <c r="F60" s="106" t="s">
@@ -29755,13 +30687,13 @@
         <v>[Manage Event-51]</v>
       </c>
       <c r="B61" s="102" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C61" s="97" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D61" s="103" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="E61" s="104"/>
       <c r="F61" s="106" t="s">
@@ -29782,13 +30714,13 @@
         <v>[Manage Event-52]</v>
       </c>
       <c r="B62" s="102" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C62" s="97" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D62" s="103" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="E62" s="104"/>
       <c r="F62" s="106" t="s">
@@ -29809,13 +30741,13 @@
         <v>[Manage Event-53]</v>
       </c>
       <c r="B63" s="102" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C63" s="97" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D63" s="103" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="E63" s="104"/>
       <c r="F63" s="106" t="s">
@@ -29836,13 +30768,13 @@
         <v>[Manage Event-54]</v>
       </c>
       <c r="B64" s="102" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C64" s="97" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D64" s="103" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E64" s="104"/>
       <c r="F64" s="106" t="s">
@@ -29863,13 +30795,13 @@
         <v>[Manage Event-55]</v>
       </c>
       <c r="B65" s="102" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C65" s="97" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D65" s="103" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="E65" s="104"/>
       <c r="F65" s="106" t="s">
@@ -29890,13 +30822,13 @@
         <v>[Manage Event-56]</v>
       </c>
       <c r="B66" s="102" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C66" s="97" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D66" s="103" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="E66" s="104"/>
       <c r="F66" s="106" t="s">
@@ -30218,7 +31150,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="196" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C2" s="196"/>
       <c r="D2" s="196"/>
@@ -30476,7 +31408,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="196" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C3" s="196"/>
       <c r="D3" s="196"/>
@@ -30734,7 +31666,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="187" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C4" s="188"/>
       <c r="D4" s="188"/>
@@ -32298,10 +33230,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -32554,7 +33486,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -32811,13 +33743,13 @@
         <v>[Manage Organization-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="106" t="s">
@@ -32838,13 +33770,13 @@
         <v>[Manage Organization-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="E13" s="99"/>
       <c r="F13" s="106" t="s">
@@ -32865,13 +33797,13 @@
         <v>[Manage Organization-4]</v>
       </c>
       <c r="B14" s="102" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="E14" s="104"/>
       <c r="F14" s="106" t="s">
@@ -32892,13 +33824,13 @@
         <v>[Manage Organization-5]</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="E15" s="104"/>
       <c r="F15" s="106" t="s">
@@ -32919,13 +33851,13 @@
         <v>[Manage Organization-6]</v>
       </c>
       <c r="B16" s="102" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C16" s="97" t="s">
+        <v>496</v>
+      </c>
+      <c r="D16" s="102" t="s">
         <v>504</v>
-      </c>
-      <c r="D16" s="102" t="s">
-        <v>512</v>
       </c>
       <c r="E16" s="104"/>
       <c r="F16" s="106" t="s">
@@ -32946,13 +33878,13 @@
         <v>[Manage Organization-7]</v>
       </c>
       <c r="B17" s="102" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E17" s="104"/>
       <c r="F17" s="106" t="s">
@@ -32973,13 +33905,13 @@
         <v>[Manage Organization-8]</v>
       </c>
       <c r="B18" s="102" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C18" s="97" t="s">
+        <v>498</v>
+      </c>
+      <c r="D18" s="102" t="s">
         <v>506</v>
-      </c>
-      <c r="D18" s="102" t="s">
-        <v>514</v>
       </c>
       <c r="E18" s="104"/>
       <c r="F18" s="106" t="s">
@@ -33000,13 +33932,13 @@
         <v>[Manage Organization-9]</v>
       </c>
       <c r="B19" s="102" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="E19" s="104"/>
       <c r="F19" s="106" t="s">
@@ -33027,13 +33959,13 @@
         <v>[Manage Organization-10]</v>
       </c>
       <c r="B20" s="102" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D20" s="102" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E20" s="104"/>
       <c r="F20" s="106" t="s">
@@ -33054,13 +33986,13 @@
         <v>[Manage Organization-11]</v>
       </c>
       <c r="B21" s="102" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E21" s="104"/>
       <c r="F21" s="106" t="s">
@@ -33081,13 +34013,13 @@
         <v>[Manage Organization-12]</v>
       </c>
       <c r="B22" s="102" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D22" s="102" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E22" s="104"/>
       <c r="F22" s="106" t="s">
@@ -33108,13 +34040,13 @@
         <v>[Manage Organization-13]</v>
       </c>
       <c r="B23" s="102" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="E23" s="104"/>
       <c r="F23" s="106" t="s">
@@ -33135,13 +34067,13 @@
         <v>[Manage Organization-14]</v>
       </c>
       <c r="B24" s="102" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="E24" s="104"/>
       <c r="F24" s="106" t="s">
@@ -33162,13 +34094,13 @@
         <v>[Manage Organization-15]</v>
       </c>
       <c r="B25" s="102" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D25" s="102" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="E25" s="104"/>
       <c r="F25" s="106" t="s">
@@ -33189,13 +34121,13 @@
         <v>[Manage Organization-16]</v>
       </c>
       <c r="B26" s="102" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D26" s="102" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="E26" s="104"/>
       <c r="F26" s="106" t="s">
@@ -33216,13 +34148,13 @@
         <v>[Manage Organization-17]</v>
       </c>
       <c r="B27" s="102" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="E27" s="104"/>
       <c r="F27" s="106" t="s">
@@ -33243,13 +34175,13 @@
         <v>[Manage Organization-18]</v>
       </c>
       <c r="B28" s="102" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="E28" s="104"/>
       <c r="F28" s="106" t="s">
@@ -33270,13 +34202,13 @@
         <v>[Manage Organization-19]</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D29" s="102" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E29" s="104"/>
       <c r="F29" s="106" t="s">
@@ -33297,13 +34229,13 @@
         <v>[Manage Organization-20]</v>
       </c>
       <c r="B30" s="102" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D30" s="102" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="E30" s="104"/>
       <c r="F30" s="106" t="s">
@@ -33324,13 +34256,13 @@
         <v>[Manage Organization-21]</v>
       </c>
       <c r="B31" s="102" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D31" s="102" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E31" s="104"/>
       <c r="F31" s="106" t="s">
@@ -33675,7 +34607,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="196" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C2" s="196"/>
       <c r="D2" s="196"/>
@@ -33933,7 +34865,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="196" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C3" s="196"/>
       <c r="D3" s="196"/>
@@ -34191,7 +35123,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="187" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C4" s="188"/>
       <c r="D4" s="188"/>
@@ -35755,10 +36687,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -36011,7 +36943,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -36268,13 +37200,13 @@
         <v>[Manage Thread-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="106" t="s">
@@ -36295,13 +37227,13 @@
         <v>[Manage Thread-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E13" s="99"/>
       <c r="F13" s="106"/>
@@ -36320,13 +37252,13 @@
         <v>[Manage Thread-4]</v>
       </c>
       <c r="B14" s="102" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E14" s="104"/>
       <c r="F14" s="106" t="s">
@@ -36347,13 +37279,13 @@
         <v>[Manage Thread-5]</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E15" s="104"/>
       <c r="F15" s="106" t="s">
@@ -36374,13 +37306,13 @@
         <v>[Manage Thread-6]</v>
       </c>
       <c r="B16" s="102" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E16" s="104"/>
       <c r="F16" s="106" t="s">
@@ -36401,13 +37333,13 @@
         <v>[Manage Thread-7]</v>
       </c>
       <c r="B17" s="102" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E17" s="104"/>
       <c r="F17" s="106" t="s">
@@ -36428,13 +37360,13 @@
         <v>[Manage Thread-8]</v>
       </c>
       <c r="B18" s="102" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E18" s="104"/>
       <c r="F18" s="106" t="s">
@@ -36455,13 +37387,13 @@
         <v>[Manage Thread-9]</v>
       </c>
       <c r="B19" s="102" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E19" s="104"/>
       <c r="F19" s="106" t="s">
@@ -36482,13 +37414,13 @@
         <v>[Manage Thread-10]</v>
       </c>
       <c r="B20" s="102" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D20" s="102" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E20" s="104"/>
       <c r="F20" s="106" t="s">
@@ -36509,13 +37441,13 @@
         <v>[Manage Thread-11]</v>
       </c>
       <c r="B21" s="102" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E21" s="104"/>
       <c r="F21" s="106" t="s">
@@ -36536,13 +37468,13 @@
         <v>[Manage Thread-12]</v>
       </c>
       <c r="B22" s="102" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D22" s="102" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E22" s="104"/>
       <c r="F22" s="106" t="s">
@@ -36563,13 +37495,13 @@
         <v>[Manage Thread-13]</v>
       </c>
       <c r="B23" s="102" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E23" s="104"/>
       <c r="F23" s="106" t="s">
@@ -36590,13 +37522,13 @@
         <v>[Manage Thread-14]</v>
       </c>
       <c r="B24" s="102" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E24" s="104"/>
       <c r="F24" s="106" t="s">
@@ -36617,13 +37549,13 @@
         <v>[Manage Thread-15]</v>
       </c>
       <c r="B25" s="102" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D25" s="102" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E25" s="104"/>
       <c r="F25" s="106" t="s">
@@ -36644,13 +37576,13 @@
         <v>[Manage Thread-16]</v>
       </c>
       <c r="B26" s="102" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D26" s="102" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E26" s="104"/>
       <c r="F26" s="106" t="s">
@@ -36671,13 +37603,13 @@
         <v>[Manage Thread-17]</v>
       </c>
       <c r="B27" s="102" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E27" s="104"/>
       <c r="F27" s="106" t="s">
@@ -36698,13 +37630,13 @@
         <v>[Manage Thread-18]</v>
       </c>
       <c r="B28" s="102" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E28" s="104"/>
       <c r="F28" s="106" t="s">
@@ -36725,13 +37657,13 @@
         <v>[Manage Thread-19]</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D29" s="102" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E29" s="104"/>
       <c r="F29" s="106" t="s">
@@ -36752,13 +37684,13 @@
         <v>[Manage Thread-20]</v>
       </c>
       <c r="B30" s="102" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D30" s="102" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E30" s="104"/>
       <c r="F30" s="106" t="s">
@@ -36779,13 +37711,13 @@
         <v>[Manage Thread-21]</v>
       </c>
       <c r="B31" s="102" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D31" s="102" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E31" s="104"/>
       <c r="F31" s="106" t="s">
@@ -36806,13 +37738,13 @@
         <v>[Manage Thread-22]</v>
       </c>
       <c r="B32" s="102" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D32" s="102" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E32" s="104"/>
       <c r="F32" s="106" t="s">
@@ -36833,13 +37765,13 @@
         <v>[Manage Thread-23]</v>
       </c>
       <c r="B33" s="102" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D33" s="102" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="E33" s="104"/>
       <c r="F33" s="106" t="s">
@@ -36860,13 +37792,13 @@
         <v>[Manage Thread-24]</v>
       </c>
       <c r="B34" s="102" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D34" s="102" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="E34" s="104"/>
       <c r="F34" s="106" t="s">
@@ -36887,13 +37819,13 @@
         <v>[Manage Thread-25]</v>
       </c>
       <c r="B35" s="102" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D35" s="102" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E35" s="104"/>
       <c r="F35" s="106" t="s">
@@ -36914,13 +37846,13 @@
         <v>[Manage Thread-26]</v>
       </c>
       <c r="B36" s="97" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D36" s="97" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E36" s="104"/>
       <c r="F36" s="106" t="s">
@@ -36941,13 +37873,13 @@
         <v>[Manage Thread-27]</v>
       </c>
       <c r="B37" s="102" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D37" s="97" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E37" s="104"/>
       <c r="F37" s="106" t="s">
@@ -36968,13 +37900,13 @@
         <v>[Manage Thread-28]</v>
       </c>
       <c r="B38" s="102" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D38" s="97" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E38" s="104"/>
       <c r="F38" s="106" t="s">
@@ -36995,13 +37927,13 @@
         <v>[Manage Thread-29]</v>
       </c>
       <c r="B39" s="102" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D39" s="97" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E39" s="104"/>
       <c r="F39" s="106" t="s">
@@ -37022,13 +37954,13 @@
         <v>[Manage Thread-30]</v>
       </c>
       <c r="B40" s="102" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E40" s="104"/>
       <c r="F40" s="106" t="s">
@@ -37049,13 +37981,13 @@
         <v>[Manage Thread-31]</v>
       </c>
       <c r="B41" s="102" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D41" s="97" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E41" s="104"/>
       <c r="F41" s="106" t="s">
@@ -37076,13 +38008,13 @@
         <v>[Manage Thread-32]</v>
       </c>
       <c r="B42" s="97" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D42" s="97" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E42" s="104"/>
       <c r="F42" s="106" t="s">
@@ -37101,13 +38033,13 @@
         <v>[Manage Thread-33]</v>
       </c>
       <c r="B43" s="97" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D43" s="97" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E43" s="104"/>
       <c r="F43" s="106" t="s">
@@ -37128,13 +38060,13 @@
         <v>[Manage Thread-34]</v>
       </c>
       <c r="B44" s="102" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D44" s="97" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E44" s="104"/>
       <c r="F44" s="106" t="s">
@@ -37155,13 +38087,13 @@
         <v>[Manage Thread-35]</v>
       </c>
       <c r="B45" s="102" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C45" s="97" t="s">
+        <v>424</v>
+      </c>
+      <c r="D45" s="97" t="s">
         <v>432</v>
-      </c>
-      <c r="D45" s="97" t="s">
-        <v>440</v>
       </c>
       <c r="E45" s="104"/>
       <c r="F45" s="106" t="s">
@@ -37483,7 +38415,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="196" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C2" s="196"/>
       <c r="D2" s="196"/>
@@ -37741,7 +38673,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="196" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C3" s="196"/>
       <c r="D3" s="196"/>
@@ -37999,7 +38931,7 @@
         <v>25</v>
       </c>
       <c r="B4" s="187" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C4" s="188"/>
       <c r="D4" s="188"/>
@@ -39563,10 +40495,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -39819,7 +40751,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -40076,13 +41008,13 @@
         <v>[User profile-2]</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="106" t="s">
@@ -40103,13 +41035,13 @@
         <v>[User profile-3]</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E13" s="99"/>
       <c r="F13" s="106" t="s">
@@ -40130,13 +41062,13 @@
         <v>[User profile-4]</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E14" s="99"/>
       <c r="F14" s="106" t="s">
@@ -40157,13 +41089,13 @@
         <v>[User profile-5]</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E15" s="99"/>
       <c r="F15" s="106" t="s">
@@ -40184,13 +41116,13 @@
         <v>[User profile-6]</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E16" s="99"/>
       <c r="F16" s="106" t="s">
@@ -40211,13 +41143,13 @@
         <v>[User profile-7]</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E17" s="99"/>
       <c r="F17" s="106" t="s">
@@ -40238,13 +41170,13 @@
         <v>[User profile-8]</v>
       </c>
       <c r="B18" s="97" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D18" s="97" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E18" s="99"/>
       <c r="F18" s="106" t="s">
@@ -40265,13 +41197,13 @@
         <v>[User profile-9]</v>
       </c>
       <c r="B19" s="97" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D19" s="97" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E19" s="99"/>
       <c r="F19" s="106" t="s">
@@ -40292,13 +41224,13 @@
         <v>[User profile-10]</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E20" s="99"/>
       <c r="F20" s="106" t="s">
@@ -40319,13 +41251,13 @@
         <v>[User profile-11]</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D21" s="97" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E21" s="99"/>
       <c r="F21" s="106" t="s">
@@ -40346,13 +41278,13 @@
         <v>[User profile-12]</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E22" s="99"/>
       <c r="F22" s="106" t="s">
@@ -40373,13 +41305,13 @@
         <v>[User profile-13]</v>
       </c>
       <c r="B23" s="97" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D23" s="97" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E23" s="99"/>
       <c r="F23" s="106" t="s">
@@ -40400,13 +41332,13 @@
         <v>[User profile-14]</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D24" s="97" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E24" s="99"/>
       <c r="F24" s="106" t="s">
@@ -40427,13 +41359,13 @@
         <v>[User profile-15]</v>
       </c>
       <c r="B25" s="97" t="s">
+        <v>467</v>
+      </c>
+      <c r="C25" s="97" t="s">
         <v>475</v>
       </c>
-      <c r="C25" s="97" t="s">
-        <v>483</v>
-      </c>
       <c r="D25" s="97" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E25" s="99"/>
       <c r="F25" s="106" t="s">
@@ -40454,13 +41386,13 @@
         <v>[User profile-16]</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D26" s="97" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E26" s="99"/>
       <c r="F26" s="106" t="s">
@@ -40481,13 +41413,13 @@
         <v>[User profile-17]</v>
       </c>
       <c r="B27" s="97" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D27" s="97" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E27" s="99"/>
       <c r="F27" s="106" t="s">
@@ -40508,13 +41440,13 @@
         <v>[User profile-18]</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D28" s="97" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E28" s="99"/>
       <c r="F28" s="106" t="s">
@@ -40535,13 +41467,13 @@
         <v>[User profile-19]</v>
       </c>
       <c r="B29" s="97" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D29" s="97" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="E29" s="99"/>
       <c r="F29" s="106" t="s">
